--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_sou.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_sou.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\auxiliary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43FC4E4-77A2-435B-90C1-06BDDA403808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="popg0" sheetId="1" r:id="rId1"/>
@@ -400,25 +394,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,13 +756,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,17 +1012,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,19 +1324,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5828242400000001</v>
+        <v>0.58282424</v>
       </c>
       <c r="C2">
-        <v>0.56793616000000013</v>
+        <v>0.56793616</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -744,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.58379860000000006</v>
+        <v>0.5837986</v>
       </c>
       <c r="C3">
-        <v>0.5691904000000001</v>
+        <v>0.5691904</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -755,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.58477296000000001</v>
+        <v>0.58477296</v>
       </c>
       <c r="C4">
-        <v>0.57044464000000006</v>
+        <v>0.57044464</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -766,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.58574731999999996</v>
+        <v>0.58574732</v>
       </c>
       <c r="C5">
-        <v>0.57169888000000002</v>
+        <v>0.57169888</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -777,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.58672168000000002</v>
+        <v>0.58672168</v>
       </c>
       <c r="C6">
-        <v>0.57295312000000009</v>
+        <v>0.57295312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -788,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.58769603999999998</v>
+        <v>0.58769604</v>
       </c>
       <c r="C7">
-        <v>0.57420735999999994</v>
+        <v>0.57420736</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -799,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.58867040000000004</v>
+        <v>0.5886704</v>
       </c>
       <c r="C8">
-        <v>0.57546160000000002</v>
+        <v>0.5754616</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -810,10 +1428,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.58192115999999994</v>
+        <v>0.58192116</v>
       </c>
       <c r="C9">
-        <v>0.56922295999999994</v>
+        <v>0.56922296</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -821,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.57517191999999995</v>
+        <v>0.57517192</v>
       </c>
       <c r="C10">
-        <v>0.56298432000000009</v>
+        <v>0.56298432</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -832,10 +1450,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.56842268000000007</v>
+        <v>0.56842268</v>
       </c>
       <c r="C11">
-        <v>0.55674568000000002</v>
+        <v>0.55674568</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -843,10 +1461,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.56167344000000008</v>
+        <v>0.56167344</v>
       </c>
       <c r="C12">
-        <v>0.55050704000000006</v>
+        <v>0.55050704</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -854,10 +1472,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.55492420000000009</v>
+        <v>0.5549242</v>
       </c>
       <c r="C13">
-        <v>0.5442684000000001</v>
+        <v>0.5442684</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -865,10 +1483,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.54283456000000008</v>
+        <v>0.54283456</v>
       </c>
       <c r="C14">
-        <v>0.5330479600000001</v>
+        <v>0.53304796</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -876,10 +1494,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.53074492000000006</v>
+        <v>0.53074492</v>
       </c>
       <c r="C15">
-        <v>0.52182751999999999</v>
+        <v>0.52182752</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -887,10 +1505,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.51865528000000005</v>
+        <v>0.51865528</v>
       </c>
       <c r="C16">
-        <v>0.5106070800000001</v>
+        <v>0.51060708</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -898,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.50656564000000004</v>
+        <v>0.50656564</v>
       </c>
       <c r="C17">
-        <v>0.49938663999999999</v>
+        <v>0.49938664</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -909,10 +1527,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.49447600000000003</v>
+        <v>0.494476</v>
       </c>
       <c r="C18">
-        <v>0.48816620000000005</v>
+        <v>0.4881662</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -920,10 +1538,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.49465364000000001</v>
+        <v>0.49465364</v>
       </c>
       <c r="C19">
-        <v>0.48842376000000004</v>
+        <v>0.48842376</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -931,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.49483127999999998</v>
+        <v>0.49483128</v>
       </c>
       <c r="C20">
-        <v>0.48868132000000009</v>
+        <v>0.48868132</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -942,10 +1560,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.49500892000000007</v>
+        <v>0.49500892</v>
       </c>
       <c r="C21">
-        <v>0.48893888000000002</v>
+        <v>0.48893888</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -953,10 +1571,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.49518656000000005</v>
+        <v>0.49518656</v>
       </c>
       <c r="C22">
-        <v>0.48919644000000001</v>
+        <v>0.48919644</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -964,7 +1582,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.49536420000000003</v>
+        <v>0.4953642</v>
       </c>
       <c r="C23">
         <v>0.489454</v>
@@ -975,10 +1593,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.50143680000000002</v>
+        <v>0.5014368</v>
       </c>
       <c r="C24">
-        <v>0.49511368000000006</v>
+        <v>0.49511368</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -989,7 +1607,7 @@
         <v>0.5075094</v>
       </c>
       <c r="C25">
-        <v>0.50077336000000006</v>
+        <v>0.50077336</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -997,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.51358199999999998</v>
+        <v>0.513582</v>
       </c>
       <c r="C26">
         <v>0.50643304</v>
@@ -1008,10 +1626,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.51965460000000008</v>
+        <v>0.5196546</v>
       </c>
       <c r="C27">
-        <v>0.51209272000000006</v>
+        <v>0.51209272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1019,10 +1637,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.52572720000000006</v>
+        <v>0.5257272</v>
       </c>
       <c r="C28">
-        <v>0.51775240000000011</v>
+        <v>0.5177524</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1030,10 +1648,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.52898299999999998</v>
+        <v>0.528983</v>
       </c>
       <c r="C29">
-        <v>0.5207650800000001</v>
+        <v>0.52076508</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1041,10 +1659,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.53223880000000001</v>
+        <v>0.5322388</v>
       </c>
       <c r="C30">
-        <v>0.52377776000000009</v>
+        <v>0.52377776</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1052,10 +1670,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.53549460000000004</v>
+        <v>0.5354946</v>
       </c>
       <c r="C31">
-        <v>0.52679044000000008</v>
+        <v>0.52679044</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1063,10 +1681,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.53875039999999996</v>
+        <v>0.5387504</v>
       </c>
       <c r="C32">
-        <v>0.52980312000000007</v>
+        <v>0.52980312</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1074,10 +1692,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.54200619999999999</v>
+        <v>0.5420062</v>
       </c>
       <c r="C33">
-        <v>0.53281580000000006</v>
+        <v>0.5328158</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1088,7 +1706,7 @@
         <v>0.52974904</v>
       </c>
       <c r="C34">
-        <v>0.5213571600000001</v>
+        <v>0.52135716</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1096,10 +1714,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.51749188000000002</v>
+        <v>0.51749188</v>
       </c>
       <c r="C35">
-        <v>0.50989852000000002</v>
+        <v>0.50989852</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1107,7 +1725,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.50523472000000003</v>
+        <v>0.50523472</v>
       </c>
       <c r="C36">
         <v>0.49843988</v>
@@ -1118,10 +1736,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.49297756000000004</v>
+        <v>0.49297756</v>
       </c>
       <c r="C37">
-        <v>0.48698123999999998</v>
+        <v>0.48698124</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1129,10 +1747,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.48072039999999999</v>
+        <v>0.4807204</v>
       </c>
       <c r="C38">
-        <v>0.47552259999999996</v>
+        <v>0.4755226</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1140,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.46028719999999995</v>
+        <v>0.4602872</v>
       </c>
       <c r="C39">
-        <v>0.45710879999999998</v>
+        <v>0.4571088</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1151,7 +1769,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.43985400000000002</v>
+        <v>0.439854</v>
       </c>
       <c r="C40">
         <v>0.438695</v>
@@ -1162,10 +1780,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.41942079999999998</v>
+        <v>0.4194208</v>
       </c>
       <c r="C41">
-        <v>0.42028120000000002</v>
+        <v>0.4202812</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1176,7 +1794,7 @@
         <v>0.3989876</v>
       </c>
       <c r="C42">
-        <v>0.40186740000000004</v>
+        <v>0.4018674</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1184,10 +1802,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.37855440000000001</v>
+        <v>0.3785544</v>
       </c>
       <c r="C43">
-        <v>0.38345360000000001</v>
+        <v>0.3834536</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1195,10 +1813,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.36597208000000003</v>
+        <v>0.36597208</v>
       </c>
       <c r="C44">
-        <v>0.37296372000000005</v>
+        <v>0.37296372</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1209,7 +1827,7 @@
         <v>0.35338976</v>
       </c>
       <c r="C45">
-        <v>0.36247384000000005</v>
+        <v>0.36247384</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1217,10 +1835,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.34080744000000002</v>
+        <v>0.34080744</v>
       </c>
       <c r="C46">
-        <v>0.35198395999999998</v>
+        <v>0.35198396</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1228,10 +1846,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.32822511999999998</v>
+        <v>0.32822512</v>
       </c>
       <c r="C47">
-        <v>0.34149407999999998</v>
+        <v>0.34149408</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1242,7 +1860,7 @@
         <v>0.3156428</v>
       </c>
       <c r="C48">
-        <v>0.33100420000000003</v>
+        <v>0.3310042</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1253,7 +1871,7 @@
         <v>0.30414648</v>
       </c>
       <c r="C49">
-        <v>0.32085639999999999</v>
+        <v>0.3208564</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1261,7 +1879,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.29265015999999999</v>
+        <v>0.29265016</v>
       </c>
       <c r="C50">
         <v>0.3107086</v>
@@ -1272,10 +1890,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.28115383999999999</v>
+        <v>0.28115384</v>
       </c>
       <c r="C51">
-        <v>0.30056080000000002</v>
+        <v>0.3005608</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1283,10 +1901,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.26965752000000004</v>
+        <v>0.26965752</v>
       </c>
       <c r="C52">
-        <v>0.29041300000000003</v>
+        <v>0.290413</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1294,10 +1912,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.25816120000000004</v>
+        <v>0.2581612</v>
       </c>
       <c r="C53">
-        <v>0.28026519999999999</v>
+        <v>0.2802652</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1305,7 +1923,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.24795160000000002</v>
+        <v>0.2479516</v>
       </c>
       <c r="C54">
         <v>0.27156552</v>
@@ -1316,10 +1934,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.23774200000000001</v>
+        <v>0.237742</v>
       </c>
       <c r="C55">
-        <v>0.26286584000000002</v>
+        <v>0.26286584</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1327,10 +1945,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.22753240000000002</v>
+        <v>0.2275324</v>
       </c>
       <c r="C56">
-        <v>0.25416616000000003</v>
+        <v>0.25416616</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1338,10 +1956,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.21732280000000001</v>
+        <v>0.2173228</v>
       </c>
       <c r="C57">
-        <v>0.24546648000000001</v>
+        <v>0.24546648</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1349,10 +1967,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.20711320000000003</v>
+        <v>0.2071132</v>
       </c>
       <c r="C58">
-        <v>0.23676680000000003</v>
+        <v>0.2367668</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1363,7 +1981,7 @@
         <v>0.19786676</v>
       </c>
       <c r="C59">
-        <v>0.22902584000000004</v>
+        <v>0.22902584</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1371,10 +1989,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.18862032000000001</v>
+        <v>0.18862032</v>
       </c>
       <c r="C60">
-        <v>0.22128488000000004</v>
+        <v>0.22128488</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1382,7 +2000,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.17937388000000001</v>
+        <v>0.17937388</v>
       </c>
       <c r="C61">
         <v>0.21354392</v>
@@ -1393,10 +2011,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.17012744000000002</v>
+        <v>0.17012744</v>
       </c>
       <c r="C62">
-        <v>0.20580296000000001</v>
+        <v>0.20580296</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1407,7 +2025,7 @@
         <v>0.160881</v>
       </c>
       <c r="C63">
-        <v>0.19806199999999999</v>
+        <v>0.198062</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1415,10 +2033,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.15210303999999999</v>
+        <v>0.15210304</v>
       </c>
       <c r="C64">
-        <v>0.18984040000000002</v>
+        <v>0.1898404</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1426,7 +2044,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.14332508000000002</v>
+        <v>0.14332508</v>
       </c>
       <c r="C65">
         <v>0.1816188</v>
@@ -1437,7 +2055,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.13454711999999999</v>
+        <v>0.13454712</v>
       </c>
       <c r="C66">
         <v>0.1733972</v>
@@ -1448,10 +2066,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.12576916000000002</v>
+        <v>0.12576916</v>
       </c>
       <c r="C67">
-        <v>0.16517560000000001</v>
+        <v>0.1651756</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1462,7 +2080,7 @@
         <v>0.1169912</v>
       </c>
       <c r="C68">
-        <v>0.15695400000000001</v>
+        <v>0.156954</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1470,10 +2088,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.10796584000000001</v>
+        <v>0.10796584</v>
       </c>
       <c r="C69">
-        <v>0.14699900000000002</v>
+        <v>0.146999</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1481,7 +2099,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>9.8940480000000011E-2</v>
+        <v>0.09894048</v>
       </c>
       <c r="C70">
         <v>0.137044</v>
@@ -1492,10 +2110,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>8.9915120000000001E-2</v>
+        <v>0.08991512</v>
       </c>
       <c r="C71">
-        <v>0.12708899999999998</v>
+        <v>0.127089</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1503,7 +2121,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8.0889760000000005E-2</v>
+        <v>0.08088976</v>
       </c>
       <c r="C72">
         <v>0.117134</v>
@@ -1514,7 +2132,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7.1864400000000009E-2</v>
+        <v>0.0718644</v>
       </c>
       <c r="C73">
         <v>0.107179</v>
@@ -1525,10 +2143,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.6018439999999998E-2</v>
+        <v>0.06601844</v>
       </c>
       <c r="C74">
-        <v>0.10044979999999999</v>
+        <v>0.1004498</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1536,10 +2154,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6.017248E-2</v>
+        <v>0.06017248</v>
       </c>
       <c r="C75">
-        <v>9.3720600000000001E-2</v>
+        <v>0.0937206</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1547,10 +2165,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>5.4326519999999996E-2</v>
+        <v>0.05432652</v>
       </c>
       <c r="C76">
-        <v>8.6991399999999997E-2</v>
+        <v>0.0869914</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1558,10 +2176,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>4.8480560000000006E-2</v>
+        <v>0.04848056</v>
       </c>
       <c r="C77">
-        <v>8.0262200000000006E-2</v>
+        <v>0.0802622</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1569,10 +2187,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4.2634600000000002E-2</v>
+        <v>0.0426346</v>
       </c>
       <c r="C78">
-        <v>7.3533000000000001E-2</v>
+        <v>0.073533</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1580,10 +2198,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3.7930520000000002E-2</v>
+        <v>0.03793052</v>
       </c>
       <c r="C79">
-        <v>6.6940360000000004E-2</v>
+        <v>0.06694036</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1591,10 +2209,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3.3226440000000003E-2</v>
+        <v>0.03322644</v>
       </c>
       <c r="C80">
-        <v>6.0347720000000007E-2</v>
+        <v>0.06034772</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1602,10 +2220,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>2.852236E-2</v>
+        <v>0.02852236</v>
       </c>
       <c r="C81">
-        <v>5.3755080000000004E-2</v>
+        <v>0.05375508</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1613,10 +2231,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2.3818280000000001E-2</v>
+        <v>0.02381828</v>
       </c>
       <c r="C82">
-        <v>4.716244E-2</v>
+        <v>0.04716244</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1624,10 +2242,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1.9114200000000001E-2</v>
+        <v>0.0191142</v>
       </c>
       <c r="C83">
-        <v>4.0569800000000003E-2</v>
+        <v>0.0405698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1635,10 +2253,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>1.6429840000000001E-2</v>
+        <v>0.01642984</v>
       </c>
       <c r="C84">
-        <v>3.5475520000000003E-2</v>
+        <v>0.03547552</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1646,10 +2264,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1.3745480000000001E-2</v>
+        <v>0.01374548</v>
       </c>
       <c r="C85">
-        <v>3.0381239999999997E-2</v>
+        <v>0.03038124</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1657,10 +2275,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1.1061120000000001E-2</v>
+        <v>0.01106112</v>
       </c>
       <c r="C86">
-        <v>2.5286959999999997E-2</v>
+        <v>0.02528696</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1668,10 +2286,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>8.3767600000000005E-3</v>
+        <v>0.00837676</v>
       </c>
       <c r="C87">
-        <v>2.0192680000000001E-2</v>
+        <v>0.02019268</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1679,10 +2297,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5.6924000000000002E-3</v>
+        <v>0.0056924</v>
       </c>
       <c r="C88">
-        <v>1.5098400000000001E-2</v>
+        <v>0.0150984</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1690,10 +2308,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4.7167600000000004E-3</v>
+        <v>0.00471676</v>
       </c>
       <c r="C89">
-        <v>1.2639640000000001E-2</v>
+        <v>0.01263964</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1701,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3.7411200000000001E-3</v>
+        <v>0.00374112</v>
       </c>
       <c r="C90">
-        <v>1.018088E-2</v>
+        <v>0.01018088</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1712,10 +2330,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2.7654799999999998E-3</v>
+        <v>0.00276548</v>
       </c>
       <c r="C91">
-        <v>7.722119999999999E-3</v>
+        <v>0.00772212</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1723,10 +2341,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1.7898400000000002E-3</v>
+        <v>0.00178984</v>
       </c>
       <c r="C92">
-        <v>5.263359999999999E-3</v>
+        <v>0.00526336</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1734,10 +2352,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>8.1419999999999995E-4</v>
+        <v>0.0008142</v>
       </c>
       <c r="C93">
-        <v>2.8046E-3</v>
+        <v>0.0028046</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1745,10 +2363,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>6.6127999999999998E-4</v>
+        <v>0.00066128</v>
       </c>
       <c r="C94">
-        <v>2.2847200000000001E-3</v>
+        <v>0.00228472</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1756,10 +2374,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>5.0836000000000002E-4</v>
+        <v>0.00050836</v>
       </c>
       <c r="C95">
-        <v>1.7648399999999999E-3</v>
+        <v>0.00176484</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1767,10 +2385,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3.5543999999999994E-4</v>
+        <v>0.00035544</v>
       </c>
       <c r="C96">
-        <v>1.2449599999999998E-3</v>
+        <v>0.00124496</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1778,10 +2396,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2.0252000000000001E-4</v>
+        <v>0.00020252</v>
       </c>
       <c r="C97">
-        <v>7.250799999999998E-4</v>
+        <v>0.00072508</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1789,10 +2407,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>4.9599999999999999E-5</v>
+        <v>4.96e-5</v>
       </c>
       <c r="C98">
-        <v>2.0520000000000003E-4</v>
+        <v>0.0002052</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1800,10 +2418,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>4.0080000000000003E-5</v>
+        <v>4.008e-5</v>
       </c>
       <c r="C99">
-        <v>1.6584000000000002E-4</v>
+        <v>0.00016584</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1811,10 +2429,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3.0559999999999999E-5</v>
+        <v>3.056e-5</v>
       </c>
       <c r="C100">
-        <v>1.2648000000000002E-4</v>
+        <v>0.00012648</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1822,26 +2440,30 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2.1039999999999998E-5</v>
+        <v>2.104e-5</v>
       </c>
       <c r="C101">
-        <v>8.7120000000000006E-5</v>
+        <v>8.712e-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -1851,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>6.7599999999999993E-2</v>
+        <v>0.0676</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1859,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>6.7599999999999993E-2</v>
+        <v>0.0676</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1867,7 +2489,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>6.7599999999999993E-2</v>
+        <v>0.0676</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1875,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>6.7599999999999993E-2</v>
+        <v>0.0676</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1883,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>6.7599999999999993E-2</v>
+        <v>0.0676</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1971,7 +2593,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>8.48E-2</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1979,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>8.48E-2</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1987,7 +2609,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>8.48E-2</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1995,7 +2617,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>8.48E-2</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2003,7 +2625,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>8.48E-2</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2011,7 +2633,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>5.1299999999999998E-2</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2019,7 +2641,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>5.1299999999999998E-2</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2027,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>5.1299999999999998E-2</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2035,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>5.1299999999999998E-2</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2043,7 +2665,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>5.1299999999999998E-2</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2051,7 +2673,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>1.83E-2</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2059,7 +2681,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>1.83E-2</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2067,7 +2689,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>1.83E-2</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2075,7 +2697,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.83E-2</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2083,7 +2705,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1.83E-2</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2091,7 +2713,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>4.2000000000000006E-3</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2099,7 +2721,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>4.2000000000000006E-3</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2107,7 +2729,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>4.2000000000000006E-3</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2115,7 +2737,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>4.2000000000000006E-3</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2123,23 +2745,27 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>4.2000000000000006E-3</v>
+        <v>0.0042</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2149,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2157,7 +2783,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2165,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2173,7 +2799,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2181,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2189,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2197,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2205,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2213,7 +2839,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2221,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2229,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2237,7 +2863,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2245,7 +2871,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2253,7 +2879,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2261,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2269,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2277,7 +2903,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2285,7 +2911,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2293,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2301,7 +2927,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2309,7 +2935,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2317,7 +2943,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2325,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2333,7 +2959,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2341,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2349,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2357,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2365,7 +2991,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2373,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2381,7 +3007,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2389,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2397,7 +3023,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2405,7 +3031,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2413,7 +3039,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2421,23 +3047,27 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2456,16 +3086,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.9741086000000001</v>
+        <v>0.9741086</v>
       </c>
       <c r="C2">
-        <v>0.97880890000000009</v>
+        <v>0.9788089</v>
       </c>
       <c r="D2">
-        <v>0.99558466277631907</v>
+        <v>0.995584662776319</v>
       </c>
       <c r="E2">
-        <v>0.99623006393007918</v>
+        <v>0.996230063930079</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2473,16 +3103,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.99798859327691203</v>
+        <v>0.997988593276912</v>
       </c>
       <c r="C3">
-        <v>0.99837242481115707</v>
+        <v>0.998372424811157</v>
       </c>
       <c r="D3">
-        <v>0.99973810281849629</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E3">
-        <v>0.99977435331505593</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2490,16 +3120,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.99798859327691192</v>
+        <v>0.997988593276912</v>
       </c>
       <c r="C4">
-        <v>0.99837242481115684</v>
+        <v>0.998372424811157</v>
       </c>
       <c r="D4">
-        <v>0.9997381028184964</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E4">
-        <v>0.99977435331505582</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2507,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.99798859327691203</v>
+        <v>0.997988593276912</v>
       </c>
       <c r="C5">
-        <v>0.99837242481115718</v>
+        <v>0.998372424811157</v>
       </c>
       <c r="D5">
-        <v>0.9997381028184964</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E5">
-        <v>0.99977435331505604</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2524,16 +3154,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.99900428517690909</v>
+        <v>0.999004285176909</v>
       </c>
       <c r="C6">
-        <v>1.0007147424843303</v>
+        <v>1.00071474248433</v>
       </c>
       <c r="D6">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E6">
-        <v>0.99989558316354421</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2541,16 +3171,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.99900428517690887</v>
+        <v>0.999004285176909</v>
       </c>
       <c r="C7">
-        <v>1.0007147424843303</v>
+        <v>1.00071474248433</v>
       </c>
       <c r="D7">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E7">
-        <v>0.99989558316354421</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2558,16 +3188,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.99900428517690898</v>
+        <v>0.999004285176909</v>
       </c>
       <c r="C8">
-        <v>1.0007147424843303</v>
+        <v>1.00071474248433</v>
       </c>
       <c r="D8">
-        <v>0.99987979629162849</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E8">
-        <v>0.9998955831635441</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2575,16 +3205,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.99900428517690887</v>
+        <v>0.999004285176909</v>
       </c>
       <c r="C9">
-        <v>1.0007147424843303</v>
+        <v>1.00071474248433</v>
       </c>
       <c r="D9">
-        <v>0.99987979629162826</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E9">
-        <v>0.9998955831635441</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2592,16 +3222,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.99900428517690887</v>
+        <v>0.999004285176909</v>
       </c>
       <c r="C10">
-        <v>1.0007147424843303</v>
+        <v>1.00071474248433</v>
       </c>
       <c r="D10">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E10">
-        <v>0.99989558316354432</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2609,16 +3239,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.99914534706687008</v>
+        <v>0.99914534706687</v>
       </c>
       <c r="C11">
-        <v>1.001268134771202</v>
+        <v>1.0012681347712</v>
       </c>
       <c r="D11">
-        <v>0.99983111247330836</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E11">
-        <v>0.99988752457801644</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2626,16 +3256,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.99914534706687008</v>
+        <v>0.99914534706687</v>
       </c>
       <c r="C12">
-        <v>1.0012681347712018</v>
+        <v>1.0012681347712</v>
       </c>
       <c r="D12">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E12">
-        <v>0.99988752457801644</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2643,16 +3273,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.99914534706687019</v>
+        <v>0.99914534706687</v>
       </c>
       <c r="C13">
-        <v>1.001268134771202</v>
+        <v>1.0012681347712</v>
       </c>
       <c r="D13">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E13">
-        <v>0.99988752457801655</v>
+        <v>0.999887524578017</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2660,16 +3290,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.99914534706687008</v>
+        <v>0.99914534706687</v>
       </c>
       <c r="C14">
-        <v>1.001268134771202</v>
+        <v>1.0012681347712</v>
       </c>
       <c r="D14">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E14">
-        <v>0.99988752457801622</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2677,16 +3307,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.99914534706687008</v>
+        <v>0.99914534706687</v>
       </c>
       <c r="C15">
-        <v>1.0012681347712018</v>
+        <v>1.0012681347712</v>
       </c>
       <c r="D15">
-        <v>0.99983111247330847</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E15">
-        <v>0.99988752457801655</v>
+        <v>0.999887524578017</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2694,16 +3324,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.99856321432074857</v>
+        <v>0.998563214320749</v>
       </c>
       <c r="C16">
-        <v>1.0013435862619549</v>
+        <v>1.00134358626195</v>
       </c>
       <c r="D16">
-        <v>0.99956041881441948</v>
+        <v>0.999560418814419</v>
       </c>
       <c r="E16">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2711,16 +3341,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.99856321432074868</v>
+        <v>0.998563214320749</v>
       </c>
       <c r="C17">
-        <v>1.0013435862619546</v>
+        <v>1.00134358626195</v>
       </c>
       <c r="D17">
-        <v>0.9995604188144197</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E17">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2728,16 +3358,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.99856321432074879</v>
+        <v>0.998563214320749</v>
       </c>
       <c r="C18">
-        <v>1.0013435862619549</v>
+        <v>1.00134358626195</v>
       </c>
       <c r="D18">
-        <v>0.99956041881441959</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E18">
-        <v>0.99980613013475406</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2745,16 +3375,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.99856321432074857</v>
+        <v>0.998563214320749</v>
       </c>
       <c r="C19">
-        <v>1.0013435862619549</v>
+        <v>1.00134358626195</v>
       </c>
       <c r="D19">
-        <v>0.9995604188144197</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E19">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2762,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.99856321432074868</v>
+        <v>0.998563214320749</v>
       </c>
       <c r="C20">
-        <v>1.0013435862619546</v>
+        <v>1.00134358626195</v>
       </c>
       <c r="D20">
-        <v>0.99956041881441948</v>
+        <v>0.999560418814419</v>
       </c>
       <c r="E20">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2779,16 +3409,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.99764233303152083</v>
+        <v>0.997642333031521</v>
       </c>
       <c r="C21">
-        <v>1.0011619473468107</v>
+        <v>1.00116194734681</v>
       </c>
       <c r="D21">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E21">
-        <v>0.99970132343730977</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2796,16 +3426,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.99764233303152083</v>
+        <v>0.997642333031521</v>
       </c>
       <c r="C22">
-        <v>1.0011619473468107</v>
+        <v>1.00116194734681</v>
       </c>
       <c r="D22">
-        <v>0.9992194038053821</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E22">
-        <v>0.99970132343730977</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2813,16 +3443,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.99764233303152094</v>
+        <v>0.997642333031521</v>
       </c>
       <c r="C23">
-        <v>1.0011619473468105</v>
+        <v>1.00116194734681</v>
       </c>
       <c r="D23">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E23">
-        <v>0.99970132343730989</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2830,16 +3460,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.99764233303152094</v>
+        <v>0.997642333031521</v>
       </c>
       <c r="C24">
-        <v>1.0011619473468107</v>
+        <v>1.00116194734681</v>
       </c>
       <c r="D24">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E24">
-        <v>0.99970132343730966</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2847,16 +3477,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.99764233303152083</v>
+        <v>0.997642333031521</v>
       </c>
       <c r="C25">
-        <v>1.0011619473468107</v>
+        <v>1.00116194734681</v>
       </c>
       <c r="D25">
-        <v>0.9992194038053821</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E25">
-        <v>0.99970132343730989</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2864,16 +3494,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.99630221045326783</v>
+        <v>0.996302210453268</v>
       </c>
       <c r="C26">
-        <v>1.0004909262411532</v>
+        <v>1.00049092624115</v>
       </c>
       <c r="D26">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E26">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2881,16 +3511,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.99630221045326783</v>
+        <v>0.996302210453268</v>
       </c>
       <c r="C27">
-        <v>1.0004909262411532</v>
+        <v>1.00049092624115</v>
       </c>
       <c r="D27">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E27">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2898,16 +3528,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.99630221045326794</v>
+        <v>0.996302210453268</v>
       </c>
       <c r="C28">
-        <v>1.0004909262411534</v>
+        <v>1.00049092624115</v>
       </c>
       <c r="D28">
-        <v>0.99902410238968153</v>
+        <v>0.999024102389682</v>
       </c>
       <c r="E28">
-        <v>0.99959710625470954</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2915,16 +3545,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.99630221045326794</v>
+        <v>0.996302210453268</v>
       </c>
       <c r="C29">
-        <v>1.0004909262411532</v>
+        <v>1.00049092624115</v>
       </c>
       <c r="D29">
-        <v>0.99902410238968153</v>
+        <v>0.999024102389682</v>
       </c>
       <c r="E29">
-        <v>0.99959710625470977</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2932,16 +3562,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.99630221045326783</v>
+        <v>0.996302210453268</v>
       </c>
       <c r="C30">
-        <v>1.0004909262411532</v>
+        <v>1.00049092624115</v>
       </c>
       <c r="D30">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E30">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2949,16 +3579,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.99435216907043777</v>
+        <v>0.994352169070438</v>
       </c>
       <c r="C31">
-        <v>0.99986972570365285</v>
+        <v>0.999869725703653</v>
       </c>
       <c r="D31">
         <v>0.998907537315608</v>
       </c>
       <c r="E31">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2969,13 +3599,13 @@
         <v>0.994352169070438</v>
       </c>
       <c r="C32">
-        <v>0.99986972570365273</v>
+        <v>0.999869725703653</v>
       </c>
       <c r="D32">
-        <v>0.99890753731560789</v>
+        <v>0.998907537315608</v>
       </c>
       <c r="E32">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2983,16 +3613,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.99435216907043789</v>
+        <v>0.994352169070438</v>
       </c>
       <c r="C33">
-        <v>0.99986972570365296</v>
+        <v>0.999869725703653</v>
       </c>
       <c r="D33">
         <v>0.998907537315608</v>
       </c>
       <c r="E33">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3000,16 +3630,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.99435216907043811</v>
+        <v>0.994352169070438</v>
       </c>
       <c r="C34">
-        <v>0.99986972570365273</v>
+        <v>0.999869725703653</v>
       </c>
       <c r="D34">
         <v>0.998907537315608</v>
       </c>
       <c r="E34">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3017,16 +3647,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.99435216907043789</v>
+        <v>0.994352169070438</v>
       </c>
       <c r="C35">
-        <v>0.99986972570365285</v>
+        <v>0.999869725703653</v>
       </c>
       <c r="D35">
         <v>0.998907537315608</v>
       </c>
       <c r="E35">
-        <v>0.99947001110695277</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3034,16 +3664,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.99123106770578229</v>
+        <v>0.991231067705782</v>
       </c>
       <c r="C36">
-        <v>0.99948766865293404</v>
+        <v>0.999487668652934</v>
       </c>
       <c r="D36">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E36">
-        <v>0.99927945683978259</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3051,16 +3681,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.99123106770578251</v>
+        <v>0.991231067705783</v>
       </c>
       <c r="C37">
-        <v>0.99948766865293392</v>
+        <v>0.999487668652934</v>
       </c>
       <c r="D37">
-        <v>0.99868036005587191</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E37">
-        <v>0.99927945683978281</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3068,16 +3698,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.99123106770578229</v>
+        <v>0.991231067705782</v>
       </c>
       <c r="C38">
-        <v>0.99948766865293392</v>
+        <v>0.999487668652934</v>
       </c>
       <c r="D38">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E38">
-        <v>0.9992794568397827</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3085,16 +3715,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.9912310677057824</v>
+        <v>0.991231067705782</v>
       </c>
       <c r="C39">
-        <v>0.99948766865293404</v>
+        <v>0.999487668652934</v>
       </c>
       <c r="D39">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E39">
-        <v>0.9992794568397827</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3102,16 +3732,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.9912310677057824</v>
+        <v>0.991231067705782</v>
       </c>
       <c r="C40">
-        <v>0.99948766865293392</v>
+        <v>0.999487668652934</v>
       </c>
       <c r="D40">
-        <v>0.99868036005587169</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E40">
-        <v>0.99927945683978281</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3119,16 +3749,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.98877520762163484</v>
+        <v>0.988775207621635</v>
       </c>
       <c r="C41">
-        <v>1.0012654716781608</v>
+        <v>1.00126547167816</v>
       </c>
       <c r="D41">
-        <v>0.99817279575377749</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E41">
-        <v>0.99894213275662436</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3136,16 +3766,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.98877520762163451</v>
+        <v>0.988775207621635</v>
       </c>
       <c r="C42">
-        <v>1.001265471678161</v>
+        <v>1.00126547167816</v>
       </c>
       <c r="D42">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E42">
-        <v>0.99894213275662436</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3153,16 +3783,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.98877520762163473</v>
+        <v>0.988775207621635</v>
       </c>
       <c r="C43">
-        <v>1.0012654716781606</v>
+        <v>1.00126547167816</v>
       </c>
       <c r="D43">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E43">
-        <v>0.99894213275662425</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3170,16 +3800,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.98877520762163484</v>
+        <v>0.988775207621635</v>
       </c>
       <c r="C44">
-        <v>1.001265471678161</v>
+        <v>1.00126547167816</v>
       </c>
       <c r="D44">
-        <v>0.99817279575377726</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E44">
-        <v>0.99894213275662447</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3187,16 +3817,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.98877520762163462</v>
+        <v>0.988775207621635</v>
       </c>
       <c r="C45">
-        <v>1.0012654716781608</v>
+        <v>1.00126547167816</v>
       </c>
       <c r="D45">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E45">
-        <v>0.99894213275662425</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3204,16 +3834,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.98581108859002808</v>
+        <v>0.985811088590028</v>
       </c>
       <c r="C46">
-        <v>1.0043085784226642</v>
+        <v>1.00430857842266</v>
       </c>
       <c r="D46">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E46">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3221,16 +3851,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.98581108859002786</v>
+        <v>0.985811088590028</v>
       </c>
       <c r="C47">
-        <v>1.0043085784226644</v>
+        <v>1.00430857842266</v>
       </c>
       <c r="D47">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E47">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3238,16 +3868,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.9858110885900282</v>
+        <v>0.985811088590028</v>
       </c>
       <c r="C48">
-        <v>1.0043085784226642</v>
+        <v>1.00430857842266</v>
       </c>
       <c r="D48">
-        <v>0.99722588158067393</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E48">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3255,16 +3885,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.98581108859002797</v>
+        <v>0.985811088590028</v>
       </c>
       <c r="C49">
-        <v>1.0043085784226642</v>
+        <v>1.00430857842266</v>
       </c>
       <c r="D49">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E49">
-        <v>0.99837112875345924</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3272,16 +3902,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.98581108859002808</v>
+        <v>0.985811088590028</v>
       </c>
       <c r="C50">
-        <v>1.0043085784226644</v>
+        <v>1.00430857842266</v>
       </c>
       <c r="D50">
-        <v>0.99722588158067393</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E50">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3289,16 +3919,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.9819562291544095</v>
+        <v>0.981956229154409</v>
       </c>
       <c r="C51">
-        <v>1.0086887355018144</v>
+        <v>1.00868873550181</v>
       </c>
       <c r="D51">
-        <v>0.99562230308280553</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E51">
-        <v>0.99749897621734984</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3306,16 +3936,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.98195622915440939</v>
+        <v>0.981956229154409</v>
       </c>
       <c r="C52">
-        <v>1.0086887355018144</v>
+        <v>1.00868873550181</v>
       </c>
       <c r="D52">
-        <v>0.99562230308280542</v>
+        <v>0.995622303082805</v>
       </c>
       <c r="E52">
-        <v>0.99749897621734962</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3323,16 +3953,16 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.9819562291544095</v>
+        <v>0.981956229154409</v>
       </c>
       <c r="C53">
-        <v>1.0086887355018144</v>
+        <v>1.00868873550181</v>
       </c>
       <c r="D53">
-        <v>0.99562230308280553</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E53">
-        <v>0.99749897621734984</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3340,16 +3970,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.9819562291544095</v>
+        <v>0.981956229154409</v>
       </c>
       <c r="C54">
-        <v>1.0086887355018144</v>
+        <v>1.00868873550181</v>
       </c>
       <c r="D54">
-        <v>0.99562230308280564</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E54">
-        <v>0.99749897621734973</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3357,16 +3987,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.98195622915440939</v>
+        <v>0.981956229154409</v>
       </c>
       <c r="C55">
-        <v>1.0086887355018146</v>
+        <v>1.00868873550181</v>
       </c>
       <c r="D55">
-        <v>0.99562230308280542</v>
+        <v>0.995622303082805</v>
       </c>
       <c r="E55">
-        <v>0.99749897621734995</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3374,16 +4004,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.97698123926356273</v>
+        <v>0.976981239263563</v>
       </c>
       <c r="C56">
-        <v>1.0148965427543479</v>
+        <v>1.01489654275435</v>
       </c>
       <c r="D56">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E56">
-        <v>0.99621598618866547</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3391,16 +4021,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.97698123926356251</v>
+        <v>0.976981239263563</v>
       </c>
       <c r="C57">
-        <v>1.0148965427543477</v>
+        <v>1.01489654275435</v>
       </c>
       <c r="D57">
-        <v>0.99311255824481559</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E57">
-        <v>0.99621598618866536</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3408,16 +4038,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.97698123926356251</v>
+        <v>0.976981239263563</v>
       </c>
       <c r="C58">
-        <v>1.0148965427543482</v>
+        <v>1.01489654275435</v>
       </c>
       <c r="D58">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E58">
-        <v>0.99621598618866525</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3425,16 +4055,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.97698123926356262</v>
+        <v>0.976981239263563</v>
       </c>
       <c r="C59">
-        <v>1.0148965427543479</v>
+        <v>1.01489654275435</v>
       </c>
       <c r="D59">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E59">
-        <v>0.99621598618866569</v>
+        <v>0.996215986188666</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3442,16 +4072,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.97698123926356262</v>
+        <v>0.976981239263563</v>
       </c>
       <c r="C60">
-        <v>1.0148965427543479</v>
+        <v>1.01489654275435</v>
       </c>
       <c r="D60">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E60">
-        <v>0.99621598618866536</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3459,16 +4089,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.96834075234641559</v>
+        <v>0.968340752346416</v>
       </c>
       <c r="C61">
         <v>1.02187703103867</v>
       </c>
       <c r="D61">
-        <v>0.98949964801502366</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E61">
-        <v>0.99432540155297122</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3476,16 +4106,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.96834075234641548</v>
+        <v>0.968340752346415</v>
       </c>
       <c r="C62">
-        <v>1.0218770310386702</v>
+        <v>1.02187703103867</v>
       </c>
       <c r="D62">
-        <v>0.98949964801502333</v>
+        <v>0.989499648015023</v>
       </c>
       <c r="E62">
-        <v>0.99432540155297133</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3493,16 +4123,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.9683407523464157</v>
+        <v>0.968340752346416</v>
       </c>
       <c r="C63">
         <v>1.02187703103867</v>
       </c>
       <c r="D63">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E63">
-        <v>0.99432540155297111</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3510,16 +4140,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.9683407523464157</v>
+        <v>0.968340752346416</v>
       </c>
       <c r="C64">
         <v>1.02187703103867</v>
       </c>
       <c r="D64">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E64">
-        <v>0.99432540155297144</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3527,16 +4157,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.96834075234641559</v>
+        <v>0.968340752346416</v>
       </c>
       <c r="C65">
         <v>1.02187703103867</v>
       </c>
       <c r="D65">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E65">
-        <v>0.99432540155297111</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3544,16 +4174,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.95460595427013284</v>
+        <v>0.954605954270133</v>
       </c>
       <c r="C66">
-        <v>1.0292777665166599</v>
+        <v>1.02927776651666</v>
       </c>
       <c r="D66">
-        <v>0.98499517490083799</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E66">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3561,16 +4191,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.95460595427013295</v>
+        <v>0.954605954270133</v>
       </c>
       <c r="C67">
-        <v>1.0292777665166595</v>
+        <v>1.02927776651666</v>
       </c>
       <c r="D67">
-        <v>0.9849951749008381</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E67">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3578,16 +4208,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.95460595427013295</v>
+        <v>0.954605954270133</v>
       </c>
       <c r="C68">
-        <v>1.0292777665166601</v>
+        <v>1.02927776651666</v>
       </c>
       <c r="D68">
-        <v>0.98499517490083788</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E68">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3595,16 +4225,16 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.95460595427013284</v>
+        <v>0.954605954270133</v>
       </c>
       <c r="C69">
-        <v>1.0292777665166597</v>
+        <v>1.02927776651666</v>
       </c>
       <c r="D69">
-        <v>0.9849951749008381</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E69">
-        <v>0.99182094762276496</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3612,16 +4242,16 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.95460595427013284</v>
+        <v>0.954605954270133</v>
       </c>
       <c r="C70">
-        <v>1.0292777665166599</v>
+        <v>1.02927776651666</v>
       </c>
       <c r="D70">
-        <v>0.98499517490083788</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E70">
-        <v>0.99182094762276474</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3629,16 +4259,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.93254911666049212</v>
+        <v>0.932549116660492</v>
       </c>
       <c r="C71">
-        <v>1.0354494874269267</v>
+        <v>1.03544948742693</v>
       </c>
       <c r="D71">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E71">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3646,16 +4276,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.93254911666049234</v>
+        <v>0.932549116660492</v>
       </c>
       <c r="C72">
-        <v>1.0354494874269267</v>
+        <v>1.03544948742693</v>
       </c>
       <c r="D72">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E72">
-        <v>0.98639707652540287</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3663,16 +4293,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.93254911666049223</v>
+        <v>0.932549116660492</v>
       </c>
       <c r="C73">
-        <v>1.0354494874269267</v>
+        <v>1.03544948742693</v>
       </c>
       <c r="D73">
-        <v>0.97644293207692456</v>
+        <v>0.976442932076925</v>
       </c>
       <c r="E73">
-        <v>0.98639707652540309</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3680,16 +4310,16 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.93254911666049223</v>
+        <v>0.932549116660492</v>
       </c>
       <c r="C74">
-        <v>1.0354494874269264</v>
+        <v>1.03544948742693</v>
       </c>
       <c r="D74">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E74">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3697,16 +4327,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.93254911666049223</v>
+        <v>0.932549116660492</v>
       </c>
       <c r="C75">
-        <v>1.0354494874269267</v>
+        <v>1.03544948742693</v>
       </c>
       <c r="D75">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E75">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3714,16 +4344,16 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.89735712188019989</v>
+        <v>0.8973571218802</v>
       </c>
       <c r="C76">
-        <v>1.0373569931817941</v>
+        <v>1.03735699318179</v>
       </c>
       <c r="D76">
-        <v>0.96011711981194758</v>
+        <v>0.960117119811948</v>
       </c>
       <c r="E76">
-        <v>0.97495307251260244</v>
+        <v>0.974953072512602</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3731,16 +4361,16 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.89735712188019978</v>
+        <v>0.8973571218802</v>
       </c>
       <c r="C77">
-        <v>1.0373569931817939</v>
+        <v>1.03735699318179</v>
       </c>
       <c r="D77">
-        <v>0.96011711981194736</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E77">
-        <v>0.97495307251260244</v>
+        <v>0.974953072512602</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3748,16 +4378,16 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.89735712188019989</v>
+        <v>0.8973571218802</v>
       </c>
       <c r="C78">
-        <v>1.0373569931817941</v>
+        <v>1.03735699318179</v>
       </c>
       <c r="D78">
-        <v>0.96011711981194758</v>
+        <v>0.960117119811948</v>
       </c>
       <c r="E78">
-        <v>0.97495307251260255</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3765,16 +4395,16 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.89735712188019978</v>
+        <v>0.8973571218802</v>
       </c>
       <c r="C79">
-        <v>1.0373569931817941</v>
+        <v>1.03735699318179</v>
       </c>
       <c r="D79">
-        <v>0.96011711981194747</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E79">
-        <v>0.97495307251260266</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3782,16 +4412,16 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.89735712188019989</v>
+        <v>0.8973571218802</v>
       </c>
       <c r="C80">
-        <v>1.0373569931817939</v>
+        <v>1.03735699318179</v>
       </c>
       <c r="D80">
-        <v>0.96011711981194747</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E80">
-        <v>0.97495307251260255</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3799,16 +4429,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.83661383255516175</v>
+        <v>0.836613832555162</v>
       </c>
       <c r="C81">
-        <v>1.0204745066293497</v>
+        <v>1.02047450662935</v>
       </c>
       <c r="D81">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E81">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3816,16 +4446,16 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.83661383255516186</v>
+        <v>0.836613832555162</v>
       </c>
       <c r="C82">
-        <v>1.0204745066293497</v>
+        <v>1.02047450662935</v>
       </c>
       <c r="D82">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E82">
-        <v>0.9545661748958596</v>
+        <v>0.95456617489586</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3833,16 +4463,16 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.83661383255516175</v>
+        <v>0.836613832555162</v>
       </c>
       <c r="C83">
-        <v>1.0204745066293497</v>
+        <v>1.02047450662935</v>
       </c>
       <c r="D83">
-        <v>0.93367204223312072</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E83">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3850,16 +4480,16 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.83661383255516186</v>
+        <v>0.836613832555162</v>
       </c>
       <c r="C84">
-        <v>1.0204745066293497</v>
+        <v>1.02047450662935</v>
       </c>
       <c r="D84">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E84">
-        <v>0.9545661748958596</v>
+        <v>0.95456617489586</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3867,16 +4497,16 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.83661383255516186</v>
+        <v>0.836613832555162</v>
       </c>
       <c r="C85">
-        <v>1.0204745066293497</v>
+        <v>1.02047450662935</v>
       </c>
       <c r="D85">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E85">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3884,16 +4514,16 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.74385312728533803</v>
+        <v>0.743853127285338</v>
       </c>
       <c r="C86">
-        <v>0.96705490146573136</v>
+        <v>0.967054901465731</v>
       </c>
       <c r="D86">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E86">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3901,16 +4531,16 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.74385312728533781</v>
+        <v>0.743853127285338</v>
       </c>
       <c r="C87">
-        <v>0.96705490146573148</v>
+        <v>0.967054901465731</v>
       </c>
       <c r="D87">
-        <v>0.89277841745369046</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E87">
-        <v>0.91971524176574715</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3918,16 +4548,16 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.74385312728533803</v>
+        <v>0.743853127285338</v>
       </c>
       <c r="C88">
-        <v>0.96705490146573136</v>
+        <v>0.967054901465731</v>
       </c>
       <c r="D88">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E88">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3935,16 +4565,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.74385312728533803</v>
+        <v>0.743853127285338</v>
       </c>
       <c r="C89">
-        <v>0.96705490146573136</v>
+        <v>0.967054901465731</v>
       </c>
       <c r="D89">
-        <v>0.89277841745369058</v>
+        <v>0.892778417453691</v>
       </c>
       <c r="E89">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3952,16 +4582,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.74385312728533792</v>
+        <v>0.743853127285338</v>
       </c>
       <c r="C90">
-        <v>0.96705490146573148</v>
+        <v>0.967054901465731</v>
       </c>
       <c r="D90">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E90">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3969,16 +4599,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.63353603968185113</v>
+        <v>0.633536039681851</v>
       </c>
       <c r="C91">
-        <v>0.86672353922337586</v>
+        <v>0.866723539223376</v>
       </c>
       <c r="D91">
-        <v>0.83390189808665172</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E91">
-        <v>0.86416031676071459</v>
+        <v>0.864160316760715</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3986,16 +4616,16 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.63353603968185113</v>
+        <v>0.633536039681851</v>
       </c>
       <c r="C92">
-        <v>0.86672353922337564</v>
+        <v>0.866723539223376</v>
       </c>
       <c r="D92">
-        <v>0.83390189808665172</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E92">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4003,16 +4633,16 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.63353603968185102</v>
+        <v>0.633536039681851</v>
       </c>
       <c r="C93">
-        <v>0.86672353922337564</v>
+        <v>0.866723539223376</v>
       </c>
       <c r="D93">
-        <v>0.83390189808665194</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E93">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4020,16 +4650,16 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.63353603968185102</v>
+        <v>0.633536039681851</v>
       </c>
       <c r="C94">
-        <v>0.86672353922337586</v>
+        <v>0.866723539223376</v>
       </c>
       <c r="D94">
-        <v>0.83390189808665183</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E94">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4037,16 +4667,16 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.63353603968185124</v>
+        <v>0.633536039681851</v>
       </c>
       <c r="C95">
-        <v>0.86672353922337575</v>
+        <v>0.866723539223376</v>
       </c>
       <c r="D95">
-        <v>0.83390189808665183</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E95">
-        <v>0.86416031676071459</v>
+        <v>0.864160316760715</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4054,16 +4684,16 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.57177094737936374</v>
+        <v>0.571770947379364</v>
       </c>
       <c r="C96">
-        <v>0.79233688466657892</v>
+        <v>0.792336884666579</v>
       </c>
       <c r="D96">
-        <v>0.75738226677885234</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E96">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4071,16 +4701,16 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.57177094737936374</v>
+        <v>0.571770947379364</v>
       </c>
       <c r="C97">
-        <v>0.79233688466657903</v>
+        <v>0.792336884666579</v>
       </c>
       <c r="D97">
-        <v>0.75738226677885223</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E97">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4088,16 +4718,16 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.57177094737936363</v>
+        <v>0.571770947379364</v>
       </c>
       <c r="C98">
-        <v>0.79233688466657892</v>
+        <v>0.792336884666579</v>
       </c>
       <c r="D98">
-        <v>0.75738226677885234</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E98">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4105,16 +4735,16 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.57177094737936396</v>
+        <v>0.571770947379364</v>
       </c>
       <c r="C99">
-        <v>0.79233688466657914</v>
+        <v>0.792336884666579</v>
       </c>
       <c r="D99">
-        <v>0.75738226677885245</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E99">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4122,32 +4752,36 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.57177094737936385</v>
+        <v>0.571770947379364</v>
       </c>
       <c r="C100">
-        <v>0.79233688466657903</v>
+        <v>0.792336884666579</v>
       </c>
       <c r="D100">
-        <v>0.75738226677885223</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E100">
-        <v>0.78483981354597687</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D318"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="3:4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4163,10 +4797,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0.46796029046512405</v>
+        <v>0.467960290465124</v>
       </c>
       <c r="D2">
-        <v>0.46876094872937601</v>
+        <v>0.468760948729376</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4177,10 +4811,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.45730079805581603</v>
+        <v>0.457300798055816</v>
       </c>
       <c r="D3">
-        <v>0.45868155678860412</v>
+        <v>0.458681556788604</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4191,10 +4825,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1.8754022467516E-2</v>
+        <v>0.018754022467516</v>
       </c>
       <c r="D4">
-        <v>1.5027992218856001E-2</v>
+        <v>0.015027992218856</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4208,7 +4842,7 @@
         <v>0.427887283178992</v>
       </c>
       <c r="D5">
-        <v>0.43357417262897607</v>
+        <v>0.433574172628976</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4219,10 +4853,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.8306441024399999E-2</v>
+        <v>0.0183064410244</v>
       </c>
       <c r="D6">
-        <v>1.4690336639980003E-2</v>
+        <v>0.01469033663998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4233,10 +4867,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0.41767537221279999</v>
+        <v>0.4176753722128</v>
       </c>
       <c r="D7">
-        <v>0.42383243626708011</v>
+        <v>0.42383243626708</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4247,10 +4881,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>1.8313017594716E-2</v>
+        <v>0.018313017594716</v>
       </c>
       <c r="D8">
-        <v>1.4698087367304002E-2</v>
+        <v>0.014698087367304</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4261,10 +4895,10 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.41782542166539199</v>
+        <v>0.417825421665392</v>
       </c>
       <c r="D9">
-        <v>0.4240560533103841</v>
+        <v>0.424056053310384</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4275,10 +4909,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1.8319594165031997E-2</v>
+        <v>0.018319594165032</v>
       </c>
       <c r="D10">
-        <v>1.4705838094628004E-2</v>
+        <v>0.014705838094628</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4289,10 +4923,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2.9996276328575999E-2</v>
+        <v>0.029996276328576</v>
       </c>
       <c r="D11">
-        <v>3.1823318503456009E-2</v>
+        <v>0.031823318503456</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4303,10 +4937,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.38797919478940801</v>
+        <v>0.387979194789408</v>
       </c>
       <c r="D12">
-        <v>0.39245635185023203</v>
+        <v>0.392456351850232</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4317,10 +4951,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1.8326170735348001E-2</v>
+        <v>0.018326170735348</v>
       </c>
       <c r="D13">
-        <v>1.4713588821952001E-2</v>
+        <v>0.014713588821952</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4331,10 +4965,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>3.0007044723264004E-2</v>
+        <v>0.030007044723264</v>
       </c>
       <c r="D14">
-        <v>3.1840091016704007E-2</v>
+        <v>0.031840091016704</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4345,10 +4979,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.38811847584731207</v>
+        <v>0.388118475847312</v>
       </c>
       <c r="D15">
-        <v>0.39266319638028796</v>
+        <v>0.392663196380288</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4359,10 +4993,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>1.8332747305664001E-2</v>
+        <v>0.018332747305664</v>
       </c>
       <c r="D16">
-        <v>1.4721339549276001E-2</v>
+        <v>0.014721339549276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4373,10 +5007,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3.0017813117952003E-2</v>
+        <v>0.030017813117952</v>
       </c>
       <c r="D17">
-        <v>3.1856863529952005E-2</v>
+        <v>0.031856863529952</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4387,7 +5021,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.38825775690521608</v>
+        <v>0.388257756905216</v>
       </c>
       <c r="D18">
         <v>0.392870040910344</v>
@@ -4401,10 +5035,10 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>1.8339323875979998E-2</v>
+        <v>0.01833932387598</v>
       </c>
       <c r="D19">
-        <v>1.4729090276600002E-2</v>
+        <v>0.0147290902766</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4415,10 +5049,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>3.0028581512640002E-2</v>
+        <v>0.03002858151264</v>
       </c>
       <c r="D20">
-        <v>3.1873636043200003E-2</v>
+        <v>0.0318736360432</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4429,10 +5063,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.38839703796312008</v>
+        <v>0.38839703796312</v>
       </c>
       <c r="D21">
-        <v>0.39307688544039998</v>
+        <v>0.3930768854404</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4443,10 +5077,10 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>1.856414306592E-2</v>
+        <v>0.01856414306592</v>
       </c>
       <c r="D22">
-        <v>1.4899406460872002E-2</v>
+        <v>0.014899406460872</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4457,10 +5091,10 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>3.0396697666559998E-2</v>
+        <v>0.03039669766656</v>
       </c>
       <c r="D23">
-        <v>3.2242198932544007E-2</v>
+        <v>0.032242198932544</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4471,10 +5105,10 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.39315834258048005</v>
+        <v>0.39315834258048</v>
       </c>
       <c r="D24">
-        <v>0.39762213256676804</v>
+        <v>0.397622132566768</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4485,10 +5119,10 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>1.8788962255859999E-2</v>
+        <v>0.01878896225586</v>
       </c>
       <c r="D25">
-        <v>1.5069722645144003E-2</v>
+        <v>0.015069722645144</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4499,10 +5133,10 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>3.0764813820479998E-2</v>
+        <v>0.03076481382048</v>
       </c>
       <c r="D26">
-        <v>3.2610761821888004E-2</v>
+        <v>0.032610761821888</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4516,7 +5150,7 @@
         <v>0.35630387639784</v>
       </c>
       <c r="D27">
-        <v>0.33346127470113601</v>
+        <v>0.333461274701136</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4527,10 +5161,10 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>4.1615770799999993E-2</v>
+        <v>0.0416157708</v>
       </c>
       <c r="D28">
-        <v>6.8706104992000014E-2</v>
+        <v>0.068706104992</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4541,10 +5175,10 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>7.7037299999999998E-3</v>
+        <v>0.00770373</v>
       </c>
       <c r="D29">
-        <v>8.2042152480000016E-3</v>
+        <v>0.008204215248</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4555,10 +5189,10 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>2.1416369399999999E-2</v>
+        <v>0.0214163694</v>
       </c>
       <c r="D30">
-        <v>1.9953461775999999E-2</v>
+        <v>0.019953461776</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4569,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="C31">
-        <v>9.5526252000000013E-3</v>
+        <v>0.0095526252</v>
       </c>
       <c r="D31">
-        <v>1.2306322872000001E-2</v>
+        <v>0.012306322872</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4583,10 +5217,10 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>4.0110754199999939E-2</v>
+        <v>0.0401107541999999</v>
       </c>
       <c r="D32">
-        <v>5.7226933519999988E-2</v>
+        <v>0.05722693352</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4597,10 +5231,10 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>0.38908972320000001</v>
+        <v>0.3890897232</v>
       </c>
       <c r="D33">
-        <v>0.36463178879999997</v>
+        <v>0.3646317888</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4611,10 +5245,10 @@
         <v>21</v>
       </c>
       <c r="C34">
-        <v>1.92079668E-2</v>
+        <v>0.0192079668</v>
       </c>
       <c r="D34">
-        <v>1.9396385432000004E-2</v>
+        <v>0.019396385432</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4625,10 +5259,10 @@
         <v>23</v>
       </c>
       <c r="C35">
-        <v>2.6500831199999998E-2</v>
+        <v>0.0265008312</v>
       </c>
       <c r="D35">
-        <v>2.4713932352000003E-2</v>
+        <v>0.024713932352</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4639,10 +5273,10 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>7.7948190000000006E-3</v>
+        <v>0.007794819</v>
       </c>
       <c r="D36">
-        <v>8.2959020640000023E-3</v>
+        <v>0.008295902064</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4653,10 +5287,10 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>2.1669596820000005E-2</v>
+        <v>0.02166959682</v>
       </c>
       <c r="D37">
-        <v>2.0176453168E-2</v>
+        <v>0.020176453168</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4667,10 +5301,10 @@
         <v>13</v>
       </c>
       <c r="C38">
-        <v>9.6655755600000021E-3</v>
+        <v>0.00966557556</v>
       </c>
       <c r="D38">
-        <v>1.2443853096000003E-2</v>
+        <v>0.012443853096</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4681,10 +5315,10 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>4.0585024259999943E-2</v>
+        <v>0.0405850242599999</v>
       </c>
       <c r="D39">
-        <v>5.7866477359999995E-2</v>
+        <v>0.05786647736</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4695,7 +5329,7 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <v>0.39369032496000006</v>
+        <v>0.39369032496</v>
       </c>
       <c r="D40">
         <v>0.3687067584</v>
@@ -4709,10 +5343,10 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>1.9435082040000003E-2</v>
+        <v>0.01943508204</v>
       </c>
       <c r="D41">
-        <v>1.9613151176000005E-2</v>
+        <v>0.019613151176</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4723,10 +5357,10 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>2.6814177360000004E-2</v>
+        <v>0.02681417736</v>
       </c>
       <c r="D42">
-        <v>2.4990124736000003E-2</v>
+        <v>0.024990124736</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4737,10 +5371,10 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>7.8859080000000005E-3</v>
+        <v>0.007885908</v>
       </c>
       <c r="D43">
-        <v>8.3875888800000031E-3</v>
+        <v>0.00838758888</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4751,10 +5385,10 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>2.1922824240000003E-2</v>
+        <v>0.02192282424</v>
       </c>
       <c r="D44">
-        <v>2.0399444560000004E-2</v>
+        <v>0.02039944456</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4765,10 +5399,10 @@
         <v>13</v>
       </c>
       <c r="C45">
-        <v>9.778525920000003E-3</v>
+        <v>0.00977852592</v>
       </c>
       <c r="D45">
-        <v>1.2581383320000004E-2</v>
+        <v>0.01258138332</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4779,10 +5413,10 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>4.1059294319999939E-2</v>
+        <v>0.0410592943199999</v>
       </c>
       <c r="D46">
-        <v>5.8506021200000001E-2</v>
+        <v>0.0585060212</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4793,10 +5427,10 @@
         <v>19</v>
       </c>
       <c r="C47">
-        <v>0.39829092672000005</v>
+        <v>0.39829092672</v>
       </c>
       <c r="D47">
-        <v>0.37278172800000009</v>
+        <v>0.372781728</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4807,10 +5441,10 @@
         <v>21</v>
       </c>
       <c r="C48">
-        <v>1.9662197280000005E-2</v>
+        <v>0.01966219728</v>
       </c>
       <c r="D48">
-        <v>1.982991692000001E-2</v>
+        <v>0.01982991692</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4821,10 +5455,10 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>2.7127523520000002E-2</v>
+        <v>0.02712752352</v>
       </c>
       <c r="D49">
-        <v>2.5266317120000006E-2</v>
+        <v>0.02526631712</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4835,10 +5469,10 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>7.934745E-3</v>
+        <v>0.007934745</v>
       </c>
       <c r="D50">
-        <v>8.4363942960000039E-3</v>
+        <v>0.008436394296</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4849,10 +5483,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>2.20585911E-2</v>
+        <v>0.0220585911</v>
       </c>
       <c r="D51">
-        <v>2.0518144152000001E-2</v>
+        <v>0.020518144152</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4863,10 +5497,10 @@
         <v>13</v>
       </c>
       <c r="C52">
-        <v>9.8390838000000005E-3</v>
+        <v>0.0098390838</v>
       </c>
       <c r="D52">
-        <v>1.2654591444000003E-2</v>
+        <v>0.012654591444</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4877,10 +5511,10 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>4.1313572299999934E-2</v>
+        <v>0.0413135722999999</v>
       </c>
       <c r="D53">
-        <v>5.8846454039999996E-2</v>
+        <v>0.05884645404</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4891,10 +5525,10 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <v>0.40075752079999999</v>
+        <v>0.4007575208</v>
       </c>
       <c r="D54">
-        <v>0.37495085760000008</v>
+        <v>0.3749508576</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4905,10 +5539,10 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>1.97839642E-2</v>
+        <v>0.0197839642</v>
       </c>
       <c r="D55">
-        <v>1.9945302564000008E-2</v>
+        <v>0.019945302564</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4919,10 +5553,10 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>2.7295522799999999E-2</v>
+        <v>0.0272955228</v>
       </c>
       <c r="D56">
-        <v>2.5413335904000005E-2</v>
+        <v>0.025413335904</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4933,10 +5567,10 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>7.9835819999999995E-3</v>
+        <v>0.007983582</v>
       </c>
       <c r="D57">
-        <v>8.4851997120000029E-3</v>
+        <v>0.008485199712</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4947,10 +5581,10 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>2.2194357960000001E-2</v>
+        <v>0.02219435796</v>
       </c>
       <c r="D58">
-        <v>2.0636843744000002E-2</v>
+        <v>0.020636843744</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4961,10 +5595,10 @@
         <v>13</v>
       </c>
       <c r="C59">
-        <v>9.8996416800000014E-3</v>
+        <v>0.00989964168</v>
       </c>
       <c r="D59">
-        <v>1.2727799568000003E-2</v>
+        <v>0.012727799568</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4975,10 +5609,10 @@
         <v>16</v>
       </c>
       <c r="C60">
-        <v>4.1567850279999936E-2</v>
+        <v>0.0415678502799999</v>
       </c>
       <c r="D60">
-        <v>5.9186886879999998E-2</v>
+        <v>0.05918688688</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4989,10 +5623,10 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <v>0.40322411488000004</v>
+        <v>0.40322411488</v>
       </c>
       <c r="D61">
-        <v>0.37711998720000006</v>
+        <v>0.3771199872</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5003,10 +5637,10 @@
         <v>21</v>
       </c>
       <c r="C62">
-        <v>1.9905731120000002E-2</v>
+        <v>0.01990573112</v>
       </c>
       <c r="D62">
-        <v>2.0060688208000006E-2</v>
+        <v>0.020060688208</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5017,10 +5651,10 @@
         <v>23</v>
       </c>
       <c r="C63">
-        <v>2.746352208E-2</v>
+        <v>0.02746352208</v>
       </c>
       <c r="D63">
-        <v>2.5560354688000005E-2</v>
+        <v>0.025560354688</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5031,10 +5665,10 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>8.0324190000000007E-3</v>
+        <v>0.008032419</v>
       </c>
       <c r="D64">
-        <v>8.534005128000002E-3</v>
+        <v>0.008534005128</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5045,10 +5679,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>2.2330124820000002E-2</v>
+        <v>0.02233012482</v>
       </c>
       <c r="D65">
-        <v>2.0755543336000003E-2</v>
+        <v>0.020755543336</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5059,10 +5693,10 @@
         <v>13</v>
       </c>
       <c r="C66">
-        <v>9.9601995600000024E-3</v>
+        <v>0.00996019956</v>
       </c>
       <c r="D66">
-        <v>1.2801007692000004E-2</v>
+        <v>0.012801007692</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5073,10 +5707,10 @@
         <v>16</v>
       </c>
       <c r="C67">
-        <v>4.1822128259999938E-2</v>
+        <v>0.0418221282599999</v>
       </c>
       <c r="D67">
-        <v>5.9527319719999999E-2</v>
+        <v>0.05952731972</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5087,10 +5721,10 @@
         <v>19</v>
       </c>
       <c r="C68">
-        <v>0.40569070896000003</v>
+        <v>0.40569070896</v>
       </c>
       <c r="D68">
-        <v>0.37928911680000005</v>
+        <v>0.3792891168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5101,10 +5735,10 @@
         <v>21</v>
       </c>
       <c r="C69">
-        <v>2.0027498040000005E-2</v>
+        <v>0.02002749804</v>
       </c>
       <c r="D69">
-        <v>2.0176073852000008E-2</v>
+        <v>0.020176073852</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5115,10 +5749,10 @@
         <v>23</v>
       </c>
       <c r="C70">
-        <v>2.7631521360000001E-2</v>
+        <v>0.02763152136</v>
       </c>
       <c r="D70">
-        <v>2.5707373472000007E-2</v>
+        <v>0.025707373472</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5129,10 +5763,10 @@
         <v>7</v>
       </c>
       <c r="C71">
-        <v>8.0812559999999985E-3</v>
+        <v>0.008081256</v>
       </c>
       <c r="D71">
-        <v>8.5828105440000028E-3</v>
+        <v>0.008582810544</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5143,10 +5777,10 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>2.2465891679999999E-2</v>
+        <v>0.02246589168</v>
       </c>
       <c r="D72">
-        <v>2.0874242928000001E-2</v>
+        <v>0.020874242928</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5157,10 +5791,10 @@
         <v>13</v>
       </c>
       <c r="C73">
-        <v>1.002075744E-2</v>
+        <v>0.01002075744</v>
       </c>
       <c r="D73">
-        <v>1.2874215816000003E-2</v>
+        <v>0.012874215816</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5171,10 +5805,10 @@
         <v>16</v>
       </c>
       <c r="C74">
-        <v>4.2076406239999933E-2</v>
+        <v>0.0420764062399999</v>
       </c>
       <c r="D74">
-        <v>5.9867752559999994E-2</v>
+        <v>0.05986775256</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5185,10 +5819,10 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>0.40815730303999997</v>
+        <v>0.40815730304</v>
       </c>
       <c r="D75">
-        <v>0.38145824640000003</v>
+        <v>0.3814582464</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5199,10 +5833,10 @@
         <v>21</v>
       </c>
       <c r="C76">
-        <v>2.014926496E-2</v>
+        <v>0.02014926496</v>
       </c>
       <c r="D76">
-        <v>2.0291459496000006E-2</v>
+        <v>0.020291459496</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5213,10 +5847,10 @@
         <v>23</v>
       </c>
       <c r="C77">
-        <v>2.7799520639999999E-2</v>
+        <v>0.02779952064</v>
       </c>
       <c r="D77">
-        <v>2.5854392256000006E-2</v>
+        <v>0.025854392256</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5227,10 +5861,10 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>8.1300929999999997E-3</v>
+        <v>0.008130093</v>
       </c>
       <c r="D78">
-        <v>8.6316159600000018E-3</v>
+        <v>0.00863161596</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5241,10 +5875,10 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>2.260165854E-2</v>
+        <v>0.02260165854</v>
       </c>
       <c r="D79">
-        <v>2.0992942520000002E-2</v>
+        <v>0.02099294252</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5255,10 +5889,10 @@
         <v>13</v>
       </c>
       <c r="C80">
-        <v>1.0081315320000001E-2</v>
+        <v>0.01008131532</v>
       </c>
       <c r="D80">
-        <v>1.2947423940000003E-2</v>
+        <v>0.01294742394</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5269,10 +5903,10 @@
         <v>16</v>
       </c>
       <c r="C81">
-        <v>4.2330684219999935E-2</v>
+        <v>0.0423306842199999</v>
       </c>
       <c r="D81">
-        <v>6.0208185399999996E-2</v>
+        <v>0.0602081854</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5283,10 +5917,10 @@
         <v>19</v>
       </c>
       <c r="C82">
-        <v>0.41062389712000003</v>
+        <v>0.41062389712</v>
       </c>
       <c r="D82">
-        <v>0.38362737600000002</v>
+        <v>0.383627376</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5297,10 +5931,10 @@
         <v>21</v>
       </c>
       <c r="C83">
-        <v>2.0271031880000002E-2</v>
+        <v>0.02027103188</v>
       </c>
       <c r="D83">
-        <v>2.0406845140000008E-2</v>
+        <v>0.02040684514</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5311,10 +5945,10 @@
         <v>23</v>
       </c>
       <c r="C84">
-        <v>2.796751992E-2</v>
+        <v>0.02796751992</v>
       </c>
       <c r="D84">
-        <v>2.6001411040000005E-2</v>
+        <v>0.02600141104</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5325,10 +5959,10 @@
         <v>7</v>
       </c>
       <c r="C85">
-        <v>7.9462356000000005E-3</v>
+        <v>0.0079462356</v>
       </c>
       <c r="D85">
-        <v>8.4459859920000026E-3</v>
+        <v>0.008445985992</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5339,10 +5973,10 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>2.2090534968000002E-2</v>
+        <v>0.022090534968</v>
       </c>
       <c r="D86">
-        <v>2.0541472104000001E-2</v>
+        <v>0.020541472104</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5353,10 +5987,10 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>9.8533321440000005E-3</v>
+        <v>0.009853332144</v>
       </c>
       <c r="D87">
-        <v>1.2668978988000004E-2</v>
+        <v>0.012668978988</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5367,10 +6001,10 @@
         <v>16</v>
       </c>
       <c r="C88">
-        <v>4.1373400023999939E-2</v>
+        <v>0.0413734000239999</v>
       </c>
       <c r="D88">
-        <v>5.8913359079999998E-2</v>
+        <v>0.05891335908</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5381,10 +6015,10 @@
         <v>19</v>
       </c>
       <c r="C89">
-        <v>0.40133787270400001</v>
+        <v>0.401337872704</v>
       </c>
       <c r="D89">
-        <v>0.37537715520000003</v>
+        <v>0.3753771552</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5395,10 +6029,10 @@
         <v>21</v>
       </c>
       <c r="C90">
-        <v>1.9812614096000002E-2</v>
+        <v>0.019812614096</v>
       </c>
       <c r="D90">
-        <v>1.9967979228000008E-2</v>
+        <v>0.019967979228</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5409,10 +6043,10 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>2.7335050464000001E-2</v>
+        <v>0.027335050464</v>
       </c>
       <c r="D91">
-        <v>2.5442229408000006E-2</v>
+        <v>0.025442229408</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5423,10 +6057,10 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>7.7623781999999995E-3</v>
+        <v>0.0077623782</v>
       </c>
       <c r="D92">
-        <v>8.2603560240000016E-3</v>
+        <v>0.008260356024</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5437,10 +6071,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>2.1579411396E-2</v>
+        <v>0.021579411396</v>
       </c>
       <c r="D93">
-        <v>2.0090001688E-2</v>
+        <v>0.020090001688</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5451,10 +6085,10 @@
         <v>13</v>
       </c>
       <c r="C94">
-        <v>9.6253489680000019E-3</v>
+        <v>0.009625348968</v>
       </c>
       <c r="D94">
-        <v>1.2390534036000002E-2</v>
+        <v>0.012390534036</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5465,10 +6099,10 @@
         <v>16</v>
       </c>
       <c r="C95">
-        <v>4.0416115827999935E-2</v>
+        <v>0.0404161158279999</v>
       </c>
       <c r="D95">
-        <v>5.7618532759999987E-2</v>
+        <v>0.05761853276</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5479,10 +6113,10 @@
         <v>19</v>
       </c>
       <c r="C96">
-        <v>0.39205184828800005</v>
+        <v>0.392051848288</v>
       </c>
       <c r="D96">
-        <v>0.36712693439999999</v>
+        <v>0.3671269344</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5493,10 +6127,10 @@
         <v>21</v>
       </c>
       <c r="C97">
-        <v>1.9354196312000003E-2</v>
+        <v>0.019354196312</v>
       </c>
       <c r="D97">
-        <v>1.9529113316000005E-2</v>
+        <v>0.019529113316</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5507,10 +6141,10 @@
         <v>23</v>
       </c>
       <c r="C98">
-        <v>2.6702581008E-2</v>
+        <v>0.026702581008</v>
       </c>
       <c r="D98">
-        <v>2.4883047776000002E-2</v>
+        <v>0.024883047776</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5521,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <v>1.7076933536E-2</v>
+        <v>0.017076933536</v>
       </c>
       <c r="D99">
-        <v>1.3108968844E-2</v>
+        <v>0.013108968844</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5535,10 +6169,10 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>5.0422425056000003E-2</v>
+        <v>0.050422425056</v>
       </c>
       <c r="D100">
-        <v>5.3183535195999998E-2</v>
+        <v>0.053183535196</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5549,10 +6183,10 @@
         <v>13</v>
       </c>
       <c r="C101">
-        <v>2.7838433071999999E-2</v>
+        <v>0.027838433072</v>
       </c>
       <c r="D101">
-        <v>2.5869029772E-2</v>
+        <v>0.025869029772</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5563,10 +6197,10 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>8.255535324799998E-2</v>
+        <v>0.082555353248</v>
       </c>
       <c r="D102">
-        <v>7.3769102239999954E-2</v>
+        <v>0.07376910224</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5577,10 +6211,10 @@
         <v>19</v>
       </c>
       <c r="C103">
-        <v>0.29440027134399999</v>
+        <v>0.294400271344</v>
       </c>
       <c r="D103">
-        <v>0.29667141657600005</v>
+        <v>0.296671416576</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5591,10 +6225,10 @@
         <v>21</v>
       </c>
       <c r="C104">
-        <v>3.0314083199999806E-4</v>
+        <v>0.000303140831999998</v>
       </c>
       <c r="D104">
-        <v>3.4890791600000141E-4</v>
+        <v>0.000348907916000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5605,10 +6239,10 @@
         <v>23</v>
       </c>
       <c r="C105">
-        <v>3.2587639440000003E-2</v>
+        <v>0.03258763944</v>
       </c>
       <c r="D105">
-        <v>3.5488919456000002E-2</v>
+        <v>0.035488919456</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5619,10 +6253,10 @@
         <v>7</v>
       </c>
       <c r="C106">
-        <v>1.6662641528E-2</v>
+        <v>0.016662641528</v>
       </c>
       <c r="D106">
-        <v>1.2807606612E-2</v>
+        <v>0.012807606612</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5633,10 +6267,10 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>4.9199160488E-2</v>
+        <v>0.049199160488</v>
       </c>
       <c r="D107">
-        <v>5.1960898307999992E-2</v>
+        <v>0.051960898308</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5647,10 +6281,10 @@
         <v>13</v>
       </c>
       <c r="C108">
-        <v>2.7163063556000001E-2</v>
+        <v>0.027163063556</v>
       </c>
       <c r="D108">
-        <v>2.5274326356E-2</v>
+        <v>0.025274326356</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5661,10 +6295,10 @@
         <v>16</v>
       </c>
       <c r="C109">
-        <v>8.0552533303999987E-2</v>
+        <v>0.080552533304</v>
       </c>
       <c r="D109">
-        <v>7.2073223519999952E-2</v>
+        <v>0.07207322352</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5675,10 +6309,10 @@
         <v>19</v>
       </c>
       <c r="C110">
-        <v>0.28725802421200003</v>
+        <v>0.287258024212</v>
       </c>
       <c r="D110">
-        <v>0.28985123404800001</v>
+        <v>0.289851234048</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5689,10 +6323,10 @@
         <v>21</v>
       </c>
       <c r="C111">
-        <v>2.9578653599999811E-4</v>
+        <v>0.000295786535999998</v>
       </c>
       <c r="D111">
-        <v>3.4088686800000134E-4</v>
+        <v>0.000340886868000001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5703,10 +6337,10 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>3.1797052620000002E-2</v>
+        <v>0.03179705262</v>
       </c>
       <c r="D112">
-        <v>3.4673064287999995E-2</v>
+        <v>0.034673064288</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5717,10 +6351,10 @@
         <v>7</v>
       </c>
       <c r="C113">
-        <v>1.6248349519999997E-2</v>
+        <v>0.01624834952</v>
       </c>
       <c r="D113">
-        <v>1.250624438E-2</v>
+        <v>0.01250624438</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5731,10 +6365,10 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>4.7975895919999997E-2</v>
+        <v>0.04797589592</v>
       </c>
       <c r="D114">
-        <v>5.0738261419999993E-2</v>
+        <v>0.05073826142</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5745,10 +6379,10 @@
         <v>13</v>
       </c>
       <c r="C115">
-        <v>2.6487694039999999E-2</v>
+        <v>0.02648769404</v>
       </c>
       <c r="D115">
-        <v>2.467962294E-2</v>
+        <v>0.02467962294</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5759,10 +6393,10 @@
         <v>16</v>
       </c>
       <c r="C116">
-        <v>7.8549713359999981E-2</v>
+        <v>0.07854971336</v>
       </c>
       <c r="D116">
-        <v>7.037734479999995E-2</v>
+        <v>0.0703773447999999</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5773,10 +6407,10 @@
         <v>19</v>
       </c>
       <c r="C117">
-        <v>0.28011577708000002</v>
+        <v>0.28011577708</v>
       </c>
       <c r="D117">
-        <v>0.28303105152000002</v>
+        <v>0.28303105152</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5787,10 +6421,10 @@
         <v>21</v>
       </c>
       <c r="C118">
-        <v>2.8843223999999815E-4</v>
+        <v>0.000288432239999998</v>
       </c>
       <c r="D118">
-        <v>3.3286582000000134E-4</v>
+        <v>0.000332865820000001</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5801,10 +6435,10 @@
         <v>23</v>
       </c>
       <c r="C119">
-        <v>3.1006465800000001E-2</v>
+        <v>0.0310064658</v>
       </c>
       <c r="D119">
-        <v>3.3857209119999995E-2</v>
+        <v>0.03385720912</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5815,10 +6449,10 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>1.5557707359999997E-2</v>
+        <v>0.01555770736</v>
       </c>
       <c r="D120">
-        <v>1.2021961439999999E-2</v>
+        <v>0.01202196144</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5829,10 +6463,10 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>4.5936662559999994E-2</v>
+        <v>0.04593666256</v>
       </c>
       <c r="D121">
-        <v>4.8773508959999996E-2</v>
+        <v>0.04877350896</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5843,10 +6477,10 @@
         <v>13</v>
       </c>
       <c r="C122">
-        <v>2.5361824719999995E-2</v>
+        <v>0.02536182472</v>
       </c>
       <c r="D122">
-        <v>2.372394672E-2</v>
+        <v>0.02372394672</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5857,10 +6491,10 @@
         <v>16</v>
       </c>
       <c r="C123">
-        <v>7.5210928479999981E-2</v>
+        <v>0.07521092848</v>
       </c>
       <c r="D123">
-        <v>6.7652102399999955E-2</v>
+        <v>0.0676521024</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5871,10 +6505,10 @@
         <v>19</v>
       </c>
       <c r="C124">
-        <v>0.26820935143999997</v>
+        <v>0.26820935144</v>
       </c>
       <c r="D124">
-        <v>0.27207115776000002</v>
+        <v>0.27207115776</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5885,10 +6519,10 @@
         <v>21</v>
       </c>
       <c r="C125">
-        <v>2.7617231999999822E-4</v>
+        <v>0.000276172319999998</v>
       </c>
       <c r="D125">
-        <v>3.1997616000000129E-4</v>
+        <v>0.000319976160000001</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5899,10 +6533,10 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>2.9688524399999999E-2</v>
+        <v>0.0296885244</v>
       </c>
       <c r="D126">
-        <v>3.2546146559999996E-2</v>
+        <v>0.03254614656</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5913,10 +6547,10 @@
         <v>7</v>
       </c>
       <c r="C127">
-        <v>1.48670652E-2</v>
+        <v>0.0148670652</v>
       </c>
       <c r="D127">
-        <v>1.1537678500000001E-2</v>
+        <v>0.0115376785</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5927,10 +6561,10 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>4.3897429200000004E-2</v>
+        <v>0.0438974292</v>
       </c>
       <c r="D128">
-        <v>4.6808756499999993E-2</v>
+        <v>0.0468087565</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5941,10 +6575,10 @@
         <v>13</v>
       </c>
       <c r="C129">
-        <v>2.4235955399999998E-2</v>
+        <v>0.0242359554</v>
       </c>
       <c r="D129">
-        <v>2.27682705E-2</v>
+        <v>0.0227682705</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5955,10 +6589,10 @@
         <v>16</v>
       </c>
       <c r="C130">
-        <v>7.1872143599999994E-2</v>
+        <v>0.0718721436</v>
       </c>
       <c r="D130">
-        <v>6.4926859999999961E-2</v>
+        <v>0.06492686</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5969,10 +6603,10 @@
         <v>19</v>
       </c>
       <c r="C131">
-        <v>0.25630292580000003</v>
+        <v>0.2563029258</v>
       </c>
       <c r="D131">
-        <v>0.26111126400000001</v>
+        <v>0.261111264</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5983,10 +6617,10 @@
         <v>21</v>
       </c>
       <c r="C132">
-        <v>2.6391239999999834E-4</v>
+        <v>0.000263912399999998</v>
       </c>
       <c r="D132">
-        <v>3.0708650000000123E-4</v>
+        <v>0.000307086500000001</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5997,10 +6631,10 @@
         <v>23</v>
       </c>
       <c r="C133">
-        <v>2.8370583000000001E-2</v>
+        <v>0.028370583</v>
       </c>
       <c r="D133">
-        <v>3.1235084E-2</v>
+        <v>0.031235084</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6011,10 +6645,10 @@
         <v>7</v>
       </c>
       <c r="C134">
-        <v>1.4176423039999999E-2</v>
+        <v>0.01417642304</v>
       </c>
       <c r="D134">
-        <v>1.105339556E-2</v>
+        <v>0.01105339556</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6025,10 +6659,10 @@
         <v>10</v>
       </c>
       <c r="C135">
-        <v>4.1858195840000001E-2</v>
+        <v>0.04185819584</v>
       </c>
       <c r="D135">
-        <v>4.4844004039999996E-2</v>
+        <v>0.04484400404</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6039,10 +6673,10 @@
         <v>13</v>
       </c>
       <c r="C136">
-        <v>2.3110086079999998E-2</v>
+        <v>0.02311008608</v>
       </c>
       <c r="D136">
-        <v>2.1812594280000003E-2</v>
+        <v>0.02181259428</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6053,10 +6687,10 @@
         <v>16</v>
       </c>
       <c r="C137">
-        <v>6.8533358719999979E-2</v>
+        <v>0.06853335872</v>
       </c>
       <c r="D137">
-        <v>6.2201617599999967E-2</v>
+        <v>0.0622016176</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6067,10 +6701,10 @@
         <v>19</v>
       </c>
       <c r="C138">
-        <v>0.24439650015999997</v>
+        <v>0.24439650016</v>
       </c>
       <c r="D138">
-        <v>0.25015137024000006</v>
+        <v>0.25015137024</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6081,10 +6715,10 @@
         <v>21</v>
       </c>
       <c r="C139">
-        <v>2.516524799999984E-4</v>
+        <v>0.000251652479999998</v>
       </c>
       <c r="D139">
-        <v>2.9419684000000118E-4</v>
+        <v>0.000294196840000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6095,10 +6729,10 @@
         <v>23</v>
       </c>
       <c r="C140">
-        <v>2.70526416E-2</v>
+        <v>0.0270526416</v>
       </c>
       <c r="D140">
-        <v>2.992402144E-2</v>
+        <v>0.02992402144</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6109,10 +6743,10 @@
         <v>7</v>
       </c>
       <c r="C141">
-        <v>1.3485780879999999E-2</v>
+        <v>0.01348578088</v>
       </c>
       <c r="D141">
-        <v>1.0569112620000001E-2</v>
+        <v>0.01056911262</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6123,10 +6757,10 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>3.9818962479999997E-2</v>
+        <v>0.03981896248</v>
       </c>
       <c r="D142">
-        <v>4.287925158E-2</v>
+        <v>0.04287925158</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6137,10 +6771,10 @@
         <v>13</v>
       </c>
       <c r="C143">
-        <v>2.1984216759999998E-2</v>
+        <v>0.02198421676</v>
       </c>
       <c r="D143">
-        <v>2.0856918060000004E-2</v>
+        <v>0.02085691806</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6151,10 +6785,10 @@
         <v>16</v>
       </c>
       <c r="C144">
-        <v>6.5194573839999978E-2</v>
+        <v>0.06519457384</v>
       </c>
       <c r="D144">
-        <v>5.9476375199999973E-2</v>
+        <v>0.0594763752</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6165,10 +6799,10 @@
         <v>19</v>
       </c>
       <c r="C145">
-        <v>0.23249007452000001</v>
+        <v>0.23249007452</v>
       </c>
       <c r="D145">
-        <v>0.23919147648000005</v>
+        <v>0.23919147648</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6179,10 +6813,10 @@
         <v>21</v>
       </c>
       <c r="C146">
-        <v>2.3939255999999847E-4</v>
+        <v>0.000239392559999998</v>
       </c>
       <c r="D146">
-        <v>2.8130718000000113E-4</v>
+        <v>0.000281307180000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6193,10 +6827,10 @@
         <v>23</v>
       </c>
       <c r="C147">
-        <v>2.5734700200000002E-2</v>
+        <v>0.0257347002</v>
       </c>
       <c r="D147">
-        <v>2.8612958880000004E-2</v>
+        <v>0.02861295888</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6207,10 +6841,10 @@
         <v>7</v>
       </c>
       <c r="C148">
-        <v>1.279513872E-2</v>
+        <v>0.01279513872</v>
       </c>
       <c r="D148">
-        <v>1.0084829680000001E-2</v>
+        <v>0.01008482968</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6221,10 +6855,10 @@
         <v>10</v>
       </c>
       <c r="C149">
-        <v>3.7779729120000001E-2</v>
+        <v>0.03777972912</v>
       </c>
       <c r="D149">
-        <v>4.0914499119999996E-2</v>
+        <v>0.04091449912</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6235,10 +6869,10 @@
         <v>13</v>
       </c>
       <c r="C150">
-        <v>2.0858347440000001E-2</v>
+        <v>0.02085834744</v>
       </c>
       <c r="D150">
-        <v>1.990124184E-2</v>
+        <v>0.01990124184</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6249,10 +6883,10 @@
         <v>16</v>
       </c>
       <c r="C151">
-        <v>6.1855788959999991E-2</v>
+        <v>0.06185578896</v>
       </c>
       <c r="D151">
-        <v>5.6751132799999965E-2</v>
+        <v>0.0567511328</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6263,10 +6897,10 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>0.22058364888000001</v>
+        <v>0.22058364888</v>
       </c>
       <c r="D152">
-        <v>0.22823158272000002</v>
+        <v>0.22823158272</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6277,10 +6911,10 @@
         <v>21</v>
       </c>
       <c r="C153">
-        <v>2.2713263999999856E-4</v>
+        <v>0.000227132639999999</v>
       </c>
       <c r="D153">
-        <v>2.6841752000000108E-4</v>
+        <v>0.000268417520000001</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6291,10 +6925,10 @@
         <v>23</v>
       </c>
       <c r="C154">
-        <v>2.44167588E-2</v>
+        <v>0.0244167588</v>
       </c>
       <c r="D154">
-        <v>2.7301896320000001E-2</v>
+        <v>0.02730189632</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6305,10 +6939,10 @@
         <v>7</v>
       </c>
       <c r="C155">
-        <v>1.2369856304000001E-2</v>
+        <v>0.012369856304</v>
       </c>
       <c r="D155">
-        <v>9.8089458360000013E-3</v>
+        <v>0.009808945836</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6319,10 +6953,10 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>3.6524013584000002E-2</v>
+        <v>0.036524013584</v>
       </c>
       <c r="D156">
-        <v>3.9795228924000003E-2</v>
+        <v>0.039795228924</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6333,10 +6967,10 @@
         <v>13</v>
       </c>
       <c r="C157">
-        <v>2.0165061607999999E-2</v>
+        <v>0.020165061608</v>
       </c>
       <c r="D157">
-        <v>1.9356817068000003E-2</v>
+        <v>0.019356817068</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6347,10 +6981,10 @@
         <v>16</v>
       </c>
       <c r="C158">
-        <v>5.9799837871999995E-2</v>
+        <v>0.059799837872</v>
       </c>
       <c r="D158">
-        <v>5.5198630559999975E-2</v>
+        <v>0.05519863056</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6361,10 +6995,10 @@
         <v>19</v>
       </c>
       <c r="C159">
-        <v>0.21325193101600001</v>
+        <v>0.213251931016</v>
       </c>
       <c r="D159">
-        <v>0.22198800614400005</v>
+        <v>0.221988006144</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6375,10 +7009,10 @@
         <v>21</v>
       </c>
       <c r="C160">
-        <v>2.195832479999986E-4</v>
+        <v>0.000219583247999999</v>
       </c>
       <c r="D160">
-        <v>2.6107460400000108E-4</v>
+        <v>0.000261074604000001</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6389,10 +7023,10 @@
         <v>23</v>
       </c>
       <c r="C161">
-        <v>2.3605199160000003E-2</v>
+        <v>0.02360519916</v>
       </c>
       <c r="D161">
-        <v>2.6555016864000004E-2</v>
+        <v>0.026555016864</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6403,10 +7037,10 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>1.1944573887999998E-2</v>
+        <v>0.011944573888</v>
       </c>
       <c r="D162">
-        <v>9.5330619920000019E-3</v>
+        <v>0.009533061992</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6417,10 +7051,10 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>3.5268298047999996E-2</v>
+        <v>0.035268298048</v>
       </c>
       <c r="D163">
-        <v>3.8675958728000004E-2</v>
+        <v>0.038675958728</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6431,10 +7065,10 @@
         <v>13</v>
       </c>
       <c r="C164">
-        <v>1.9471775775999997E-2</v>
+        <v>0.019471775776</v>
       </c>
       <c r="D164">
-        <v>1.8812392296000003E-2</v>
+        <v>0.018812392296</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6445,10 +7079,10 @@
         <v>16</v>
       </c>
       <c r="C165">
-        <v>5.7743886783999984E-2</v>
+        <v>0.057743886784</v>
       </c>
       <c r="D165">
-        <v>5.3646128319999972E-2</v>
+        <v>0.05364612832</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6459,10 +7093,10 @@
         <v>19</v>
       </c>
       <c r="C166">
-        <v>0.20592021315199999</v>
+        <v>0.205920213152</v>
       </c>
       <c r="D166">
-        <v>0.21574442956800005</v>
+        <v>0.215744429568</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6473,10 +7107,10 @@
         <v>21</v>
       </c>
       <c r="C167">
-        <v>2.1203385599999865E-4</v>
+        <v>0.000212033855999999</v>
       </c>
       <c r="D167">
-        <v>2.5373168800000103E-4</v>
+        <v>0.000253731688000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6487,10 +7121,10 @@
         <v>23</v>
       </c>
       <c r="C168">
-        <v>2.2793639519999999E-2</v>
+        <v>0.02279363952</v>
       </c>
       <c r="D168">
-        <v>2.5808137408000004E-2</v>
+        <v>0.025808137408</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6501,10 +7135,10 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>2.4844862376000004E-2</v>
+        <v>0.024844862376</v>
       </c>
       <c r="D169">
-        <v>1.7563999604E-2</v>
+        <v>0.017563999604</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6515,10 +7149,10 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>5.4665513376000001E-2</v>
+        <v>0.054665513376</v>
       </c>
       <c r="D170">
-        <v>5.6317433600000001E-2</v>
+        <v>0.0563174336</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6529,10 +7163,10 @@
         <v>13</v>
       </c>
       <c r="C171">
-        <v>2.7707644872000003E-2</v>
+        <v>0.027707644872</v>
       </c>
       <c r="D171">
-        <v>2.3547726924E-2</v>
+        <v>0.023547726924</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6543,10 +7177,10 @@
         <v>16</v>
       </c>
       <c r="C172">
-        <v>5.7562376616000013E-2</v>
+        <v>0.057562376616</v>
       </c>
       <c r="D172">
-        <v>5.2023229288000003E-2</v>
+        <v>0.052023229288</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6557,10 +7191,10 @@
         <v>19</v>
       </c>
       <c r="C173">
-        <v>0.14985303136799999</v>
+        <v>0.149853031368</v>
       </c>
       <c r="D173">
-        <v>0.17148658531200001</v>
+        <v>0.171486585312</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6571,10 +7205,10 @@
         <v>21</v>
       </c>
       <c r="C174">
-        <v>2.7264595200000022E-4</v>
+        <v>0.000272645952</v>
       </c>
       <c r="D174">
-        <v>2.8158716800000022E-4</v>
+        <v>0.000281587168</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6585,10 +7219,10 @@
         <v>23</v>
       </c>
       <c r="C175">
-        <v>2.5901365440000001E-2</v>
+        <v>0.02590136544</v>
       </c>
       <c r="D175">
-        <v>3.0763398104E-2</v>
+        <v>0.030763398104</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6599,10 +7233,10 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>2.3927611248E-2</v>
+        <v>0.023927611248</v>
       </c>
       <c r="D176">
-        <v>1.7040554592000001E-2</v>
+        <v>0.017040554592</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6613,10 +7247,10 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>5.2647309247999992E-2</v>
+        <v>0.052647309248</v>
       </c>
       <c r="D177">
-        <v>5.4639052799999997E-2</v>
+        <v>0.0546390528</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6627,10 +7261,10 @@
         <v>13</v>
       </c>
       <c r="C178">
-        <v>2.6684702256000004E-2</v>
+        <v>0.026684702256</v>
       </c>
       <c r="D178">
-        <v>2.2845953951999998E-2</v>
+        <v>0.022845953952</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6641,10 +7275,10 @@
         <v>16</v>
       </c>
       <c r="C179">
-        <v>5.5437222768000005E-2</v>
+        <v>0.055437222768</v>
       </c>
       <c r="D179">
-        <v>5.0472825024000002E-2</v>
+        <v>0.050472825024</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6655,7 +7289,7 @@
         <v>19</v>
       </c>
       <c r="C180">
-        <v>0.14432058526399999</v>
+        <v>0.144320585264</v>
       </c>
       <c r="D180">
         <v>0.166375915776</v>
@@ -6669,10 +7303,10 @@
         <v>21</v>
       </c>
       <c r="C181">
-        <v>2.6258009600000021E-4</v>
+        <v>0.000262580096</v>
       </c>
       <c r="D181">
-        <v>2.7319526400000019E-4</v>
+        <v>0.000273195264</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6683,10 +7317,10 @@
         <v>23</v>
       </c>
       <c r="C182">
-        <v>2.494510912E-2</v>
+        <v>0.02494510912</v>
       </c>
       <c r="D182">
-        <v>2.9846582592000001E-2</v>
+        <v>0.029846582592</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6697,10 +7331,10 @@
         <v>7</v>
       </c>
       <c r="C183">
-        <v>2.3010360120000004E-2</v>
+        <v>0.02301036012</v>
       </c>
       <c r="D183">
-        <v>1.6517109580000001E-2</v>
+        <v>0.01651710958</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6711,10 +7345,10 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>5.0629105119999997E-2</v>
+        <v>0.05062910512</v>
       </c>
       <c r="D184">
-        <v>5.2960672000000007E-2</v>
+        <v>0.052960672</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6725,10 +7359,10 @@
         <v>13</v>
       </c>
       <c r="C185">
-        <v>2.5661759640000004E-2</v>
+        <v>0.02566175964</v>
       </c>
       <c r="D185">
-        <v>2.2144180980000001E-2</v>
+        <v>0.02214418098</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6739,10 +7373,10 @@
         <v>16</v>
       </c>
       <c r="C186">
-        <v>5.3312068920000004E-2</v>
+        <v>0.05331206892</v>
       </c>
       <c r="D186">
-        <v>4.8922420760000009E-2</v>
+        <v>0.04892242076</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6753,10 +7387,10 @@
         <v>19</v>
       </c>
       <c r="C187">
-        <v>0.13878813915999999</v>
+        <v>0.13878813916</v>
       </c>
       <c r="D187">
-        <v>0.16126524624000002</v>
+        <v>0.16126524624</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6767,10 +7401,10 @@
         <v>21</v>
       </c>
       <c r="C188">
-        <v>2.5251424000000019E-4</v>
+        <v>0.00025251424</v>
       </c>
       <c r="D188">
-        <v>2.6480336000000027E-4</v>
+        <v>0.00026480336</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6781,10 +7415,10 @@
         <v>23</v>
       </c>
       <c r="C189">
-        <v>2.3988852799999998E-2</v>
+        <v>0.0239888528</v>
       </c>
       <c r="D189">
-        <v>2.8929767080000005E-2</v>
+        <v>0.02892976708</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6795,10 +7429,10 @@
         <v>7</v>
       </c>
       <c r="C190">
-        <v>2.2172278392000002E-2</v>
+        <v>0.022172278392</v>
       </c>
       <c r="D190">
-        <v>1.6010734360000001E-2</v>
+        <v>0.01601073436</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6809,10 +7443,10 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>4.8785095391999996E-2</v>
+        <v>0.048785095392</v>
       </c>
       <c r="D191">
-        <v>5.1337024000000002E-2</v>
+        <v>0.051337024</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6823,10 +7457,10 @@
         <v>13</v>
       </c>
       <c r="C192">
-        <v>2.4727108824000005E-2</v>
+        <v>0.024727108824</v>
       </c>
       <c r="D192">
-        <v>2.1465293159999999E-2</v>
+        <v>0.02146529316</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6837,10 +7471,10 @@
         <v>16</v>
       </c>
       <c r="C193">
-        <v>5.1370340472000009E-2</v>
+        <v>0.051370340472</v>
       </c>
       <c r="D193">
-        <v>4.7422575920000001E-2</v>
+        <v>0.04742257592</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6851,10 +7485,10 @@
         <v>19</v>
       </c>
       <c r="C194">
-        <v>0.13373320725599999</v>
+        <v>0.133733207256</v>
       </c>
       <c r="D194">
-        <v>0.15632123808000001</v>
+        <v>0.15632123808</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6865,10 +7499,10 @@
         <v>21</v>
       </c>
       <c r="C195">
-        <v>2.4331718400000022E-4</v>
+        <v>0.000243317184</v>
       </c>
       <c r="D195">
-        <v>2.5668512000000021E-4</v>
+        <v>0.00025668512</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6879,10 +7513,10 @@
         <v>23</v>
       </c>
       <c r="C196">
-        <v>2.3115132479999998E-2</v>
+        <v>0.02311513248</v>
       </c>
       <c r="D196">
-        <v>2.804284936E-2</v>
+        <v>0.02804284936</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6893,10 +7527,10 @@
         <v>7</v>
       </c>
       <c r="C197">
-        <v>2.1334196664000001E-2</v>
+        <v>0.021334196664</v>
       </c>
       <c r="D197">
-        <v>1.550435914E-2</v>
+        <v>0.01550435914</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6907,10 +7541,10 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>4.6941085663999994E-2</v>
+        <v>0.046941085664</v>
       </c>
       <c r="D198">
-        <v>4.9713376000000004E-2</v>
+        <v>0.049713376</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6921,10 +7555,10 @@
         <v>13</v>
       </c>
       <c r="C199">
-        <v>2.3792458008000002E-2</v>
+        <v>0.023792458008</v>
       </c>
       <c r="D199">
-        <v>2.0786405340000001E-2</v>
+        <v>0.02078640534</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6935,10 +7569,10 @@
         <v>16</v>
       </c>
       <c r="C200">
-        <v>4.9428612024000007E-2</v>
+        <v>0.049428612024</v>
       </c>
       <c r="D200">
-        <v>4.5922731080000008E-2</v>
+        <v>0.04592273108</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6949,10 +7583,10 @@
         <v>19</v>
       </c>
       <c r="C201">
-        <v>0.12867827535199999</v>
+        <v>0.128678275352</v>
       </c>
       <c r="D201">
-        <v>0.15137722991999999</v>
+        <v>0.15137722992</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6963,10 +7597,10 @@
         <v>21</v>
       </c>
       <c r="C202">
-        <v>2.3412012800000021E-4</v>
+        <v>0.000234120128</v>
       </c>
       <c r="D202">
-        <v>2.485668800000002E-4</v>
+        <v>0.00024856688</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6977,10 +7611,10 @@
         <v>23</v>
       </c>
       <c r="C203">
-        <v>2.2241412159999998E-2</v>
+        <v>0.02224141216</v>
       </c>
       <c r="D203">
-        <v>2.7155931640000002E-2</v>
+        <v>0.02715593164</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6991,10 +7625,10 @@
         <v>7</v>
       </c>
       <c r="C204">
-        <v>2.0496114936000003E-2</v>
+        <v>0.020496114936</v>
       </c>
       <c r="D204">
-        <v>1.4997983920000001E-2</v>
+        <v>0.01499798392</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7005,10 +7639,10 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>4.5097075935999993E-2</v>
+        <v>0.045097075936</v>
       </c>
       <c r="D205">
-        <v>4.8089728000000005E-2</v>
+        <v>0.048089728</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7019,10 +7653,10 @@
         <v>13</v>
       </c>
       <c r="C206">
-        <v>2.2857807192000004E-2</v>
+        <v>0.022857807192</v>
       </c>
       <c r="D206">
-        <v>2.010751752E-2</v>
+        <v>0.02010751752</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7033,10 +7667,10 @@
         <v>16</v>
       </c>
       <c r="C207">
-        <v>4.7486883576000005E-2</v>
+        <v>0.047486883576</v>
       </c>
       <c r="D207">
-        <v>4.4422886240000008E-2</v>
+        <v>0.04442288624</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7047,10 +7681,10 @@
         <v>19</v>
       </c>
       <c r="C208">
-        <v>0.12362334344799999</v>
+        <v>0.123623343448</v>
       </c>
       <c r="D208">
-        <v>0.14643322176000001</v>
+        <v>0.14643322176</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7061,10 +7695,10 @@
         <v>21</v>
       </c>
       <c r="C209">
-        <v>2.2492307200000017E-4</v>
+        <v>0.000224923072</v>
       </c>
       <c r="D209">
-        <v>2.4044864000000022E-4</v>
+        <v>0.00024044864</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7075,10 +7709,10 @@
         <v>23</v>
       </c>
       <c r="C210">
-        <v>2.1367691839999998E-2</v>
+        <v>0.02136769184</v>
       </c>
       <c r="D210">
-        <v>2.6269013920000004E-2</v>
+        <v>0.02626901392</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7089,10 +7723,10 @@
         <v>7</v>
       </c>
       <c r="C211">
-        <v>1.9658033208000004E-2</v>
+        <v>0.019658033208</v>
       </c>
       <c r="D211">
-        <v>1.4491608700000002E-2</v>
+        <v>0.0144916087</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7103,10 +7737,10 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>4.3253066208000006E-2</v>
+        <v>0.043253066208</v>
       </c>
       <c r="D212">
-        <v>4.6466080000000007E-2</v>
+        <v>0.04646608</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7117,10 +7751,10 @@
         <v>13</v>
       </c>
       <c r="C213">
-        <v>2.1923156376000005E-2</v>
+        <v>0.021923156376</v>
       </c>
       <c r="D213">
-        <v>1.9428629700000002E-2</v>
+        <v>0.0194286297</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7131,10 +7765,10 @@
         <v>16</v>
       </c>
       <c r="C214">
-        <v>4.554515512800001E-2</v>
+        <v>0.045545155128</v>
       </c>
       <c r="D214">
-        <v>4.2923041400000007E-2</v>
+        <v>0.0429230414</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7145,10 +7779,10 @@
         <v>19</v>
       </c>
       <c r="C215">
-        <v>0.11856841154400001</v>
+        <v>0.118568411544</v>
       </c>
       <c r="D215">
-        <v>0.14148921360000002</v>
+        <v>0.1414892136</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7159,10 +7793,10 @@
         <v>21</v>
       </c>
       <c r="C216">
-        <v>2.1572601600000022E-4</v>
+        <v>0.000215726016</v>
       </c>
       <c r="D216">
-        <v>2.3233040000000024E-4</v>
+        <v>0.0002323304</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7173,10 +7807,10 @@
         <v>23</v>
       </c>
       <c r="C217">
-        <v>2.0493971520000001E-2</v>
+        <v>0.02049397152</v>
       </c>
       <c r="D217">
-        <v>2.5382096200000006E-2</v>
+        <v>0.0253820962</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7187,10 +7821,10 @@
         <v>7</v>
       </c>
       <c r="C218">
-        <v>1.8819951480000003E-2</v>
+        <v>0.01881995148</v>
       </c>
       <c r="D218">
-        <v>1.398523348E-2</v>
+        <v>0.01398523348</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7201,10 +7835,10 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>4.1409056480000005E-2</v>
+        <v>0.04140905648</v>
       </c>
       <c r="D219">
-        <v>4.4842432000000002E-2</v>
+        <v>0.044842432</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7215,10 +7849,10 @@
         <v>13</v>
       </c>
       <c r="C220">
-        <v>2.0988505560000006E-2</v>
+        <v>0.02098850556</v>
       </c>
       <c r="D220">
-        <v>1.874974188E-2</v>
+        <v>0.01874974188</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7229,10 +7863,10 @@
         <v>16</v>
       </c>
       <c r="C221">
-        <v>4.3603426680000008E-2</v>
+        <v>0.04360342668</v>
       </c>
       <c r="D221">
-        <v>4.142319656E-2</v>
+        <v>0.04142319656</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7243,10 +7877,10 @@
         <v>19</v>
       </c>
       <c r="C222">
-        <v>0.11351347964000001</v>
+        <v>0.11351347964</v>
       </c>
       <c r="D222">
-        <v>0.13654520544000001</v>
+        <v>0.13654520544</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7257,10 +7891,10 @@
         <v>21</v>
       </c>
       <c r="C223">
-        <v>2.0652896000000021E-4</v>
+        <v>0.00020652896</v>
       </c>
       <c r="D223">
-        <v>2.2421216000000017E-4</v>
+        <v>0.00022421216</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7271,10 +7905,10 @@
         <v>23</v>
       </c>
       <c r="C224">
-        <v>1.9620251200000001E-2</v>
+        <v>0.0196202512</v>
       </c>
       <c r="D224">
-        <v>2.4495178480000001E-2</v>
+        <v>0.02449517848</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7285,10 +7919,10 @@
         <v>7</v>
       </c>
       <c r="C225">
-        <v>1.8075671640000002E-2</v>
+        <v>0.01807567164</v>
       </c>
       <c r="D225">
-        <v>1.3551119448E-2</v>
+        <v>0.013551119448</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7299,10 +7933,10 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>3.9771436639999998E-2</v>
+        <v>0.03977143664</v>
       </c>
       <c r="D226">
-        <v>4.3450483200000001E-2</v>
+        <v>0.0434504832</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7313,10 +7947,10 @@
         <v>13</v>
       </c>
       <c r="C227">
-        <v>2.0158465080000004E-2</v>
+        <v>0.02015846508</v>
       </c>
       <c r="D227">
-        <v>1.8167733288000001E-2</v>
+        <v>0.018167733288</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7327,10 +7961,10 @@
         <v>16</v>
       </c>
       <c r="C228">
-        <v>4.1879025240000006E-2</v>
+        <v>0.04187902524</v>
       </c>
       <c r="D228">
-        <v>4.0137383856000006E-2</v>
+        <v>0.040137383856</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7341,10 +7975,10 @@
         <v>19</v>
       </c>
       <c r="C229">
-        <v>0.10902431852000001</v>
+        <v>0.10902431852</v>
       </c>
       <c r="D229">
-        <v>0.13230672134400001</v>
+        <v>0.132306721344</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7355,10 +7989,10 @@
         <v>21</v>
       </c>
       <c r="C230">
-        <v>1.9836128000000019E-4</v>
+        <v>0.00019836128</v>
       </c>
       <c r="D230">
-        <v>2.1725241600000018E-4</v>
+        <v>0.000217252416</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7369,10 +8003,10 @@
         <v>23</v>
       </c>
       <c r="C231">
-        <v>1.8844321600000002E-2</v>
+        <v>0.0188443216</v>
       </c>
       <c r="D231">
-        <v>2.3734826448000002E-2</v>
+        <v>0.023734826448</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7383,10 +8017,10 @@
         <v>7</v>
       </c>
       <c r="C232">
-        <v>1.7331391800000002E-2</v>
+        <v>0.0173313918</v>
       </c>
       <c r="D232">
-        <v>1.3117005416000001E-2</v>
+        <v>0.013117005416</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7397,10 +8031,10 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>3.8133816799999998E-2</v>
+        <v>0.0381338168</v>
       </c>
       <c r="D233">
-        <v>4.2058534400000007E-2</v>
+        <v>0.0420585344</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7411,10 +8045,10 @@
         <v>13</v>
       </c>
       <c r="C234">
-        <v>1.9328424600000005E-2</v>
+        <v>0.0193284246</v>
       </c>
       <c r="D234">
-        <v>1.7585724696000001E-2</v>
+        <v>0.017585724696</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7425,10 +8059,10 @@
         <v>16</v>
       </c>
       <c r="C235">
-        <v>4.0154623800000004E-2</v>
+        <v>0.0401546238</v>
       </c>
       <c r="D235">
-        <v>3.8851571152000004E-2</v>
+        <v>0.038851571152</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7442,7 +8076,7 @@
         <v>0.1045351574</v>
       </c>
       <c r="D236">
-        <v>0.12806823724800001</v>
+        <v>0.128068237248</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7453,10 +8087,10 @@
         <v>21</v>
       </c>
       <c r="C237">
-        <v>1.9019360000000016E-4</v>
+        <v>0.0001901936</v>
       </c>
       <c r="D237">
-        <v>2.1029267200000019E-4</v>
+        <v>0.000210292672</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7467,10 +8101,10 @@
         <v>23</v>
       </c>
       <c r="C238">
-        <v>1.8068391999999999E-2</v>
+        <v>0.018068392</v>
       </c>
       <c r="D238">
-        <v>2.2974474416000003E-2</v>
+        <v>0.022974474416</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7481,10 +8115,10 @@
         <v>7</v>
       </c>
       <c r="C239">
-        <v>3.3060457719999999E-2</v>
+        <v>0.03306045772</v>
       </c>
       <c r="D239">
-        <v>2.528953292E-2</v>
+        <v>0.02528953292</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7495,10 +8129,10 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>5.1718114520000004E-2</v>
+        <v>0.05171811452</v>
       </c>
       <c r="D240">
-        <v>5.7289052464000005E-2</v>
+        <v>0.057289052464</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7509,10 +8143,10 @@
         <v>13</v>
       </c>
       <c r="C241">
-        <v>2.0637188680000002E-2</v>
+        <v>0.02063718868</v>
       </c>
       <c r="D241">
-        <v>1.9647044168000005E-2</v>
+        <v>0.019647044168</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7523,10 +8157,10 @@
         <v>16</v>
       </c>
       <c r="C242">
-        <v>3.9772663520000008E-2</v>
+        <v>0.03977266352</v>
       </c>
       <c r="D242">
-        <v>3.9751587424000007E-2</v>
+        <v>0.039751587424</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7537,10 +8171,10 @@
         <v>19</v>
       </c>
       <c r="C243">
-        <v>6.641670756000001E-2</v>
+        <v>0.06641670756</v>
       </c>
       <c r="D243">
-        <v>9.0432319728000018E-2</v>
+        <v>0.090432319728</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7551,10 +8185,10 @@
         <v>21</v>
       </c>
       <c r="C244">
-        <v>1.5927267999999863E-4</v>
+        <v>0.000159272679999999</v>
       </c>
       <c r="D244">
-        <v>2.2874954399999966E-4</v>
+        <v>0.000228749544</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7565,10 +8199,10 @@
         <v>23</v>
       </c>
       <c r="C245">
-        <v>1.5790748560000002E-2</v>
+        <v>0.01579074856</v>
       </c>
       <c r="D245">
-        <v>2.1527873752000007E-2</v>
+        <v>0.021527873752</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7579,10 +8213,10 @@
         <v>7</v>
       </c>
       <c r="C246">
-        <v>3.157700284E-2</v>
+        <v>0.03157700284</v>
       </c>
       <c r="D246">
-        <v>2.4423914759999998E-2</v>
+        <v>0.02442391476</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7593,10 +8227,10 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>4.939747244E-2</v>
+        <v>0.04939747244</v>
       </c>
       <c r="D247">
-        <v>5.5328144592E-2</v>
+        <v>0.055328144592</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7607,10 +8241,10 @@
         <v>13</v>
       </c>
       <c r="C248">
-        <v>1.9711177960000003E-2</v>
+        <v>0.01971117796</v>
       </c>
       <c r="D248">
-        <v>1.8974558904000002E-2</v>
+        <v>0.018974558904</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7621,10 +8255,10 @@
         <v>16</v>
       </c>
       <c r="C249">
-        <v>3.7988025440000003E-2</v>
+        <v>0.03798802544</v>
       </c>
       <c r="D249">
-        <v>3.8390957472000005E-2</v>
+        <v>0.038390957472</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7635,10 +8269,10 @@
         <v>19</v>
       </c>
       <c r="C250">
-        <v>6.3436525320000006E-2</v>
+        <v>0.06343652532</v>
       </c>
       <c r="D250">
-        <v>8.7336973584000013E-2</v>
+        <v>0.087336973584</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7649,10 +8283,10 @@
         <v>21</v>
       </c>
       <c r="C251">
-        <v>1.5212595999999868E-4</v>
+        <v>0.000152125959999999</v>
       </c>
       <c r="D251">
-        <v>2.2091983199999966E-4</v>
+        <v>0.000220919832</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7663,10 +8297,10 @@
         <v>23</v>
       </c>
       <c r="C252">
-        <v>1.5082202320000002E-2</v>
+        <v>0.01508220232</v>
       </c>
       <c r="D252">
-        <v>2.0791010856000006E-2</v>
+        <v>0.020791010856</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7677,10 +8311,10 @@
         <v>7</v>
       </c>
       <c r="C253">
-        <v>3.0093547960000001E-2</v>
+        <v>0.03009354796</v>
       </c>
       <c r="D253">
-        <v>2.35582966E-2</v>
+        <v>0.0235582966</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7691,10 +8325,10 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>4.7076830360000009E-2</v>
+        <v>0.04707683036</v>
       </c>
       <c r="D254">
-        <v>5.3367236720000003E-2</v>
+        <v>0.05336723672</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7705,10 +8339,10 @@
         <v>13</v>
       </c>
       <c r="C255">
-        <v>1.8785167240000004E-2</v>
+        <v>0.01878516724</v>
       </c>
       <c r="D255">
-        <v>1.8302073640000003E-2</v>
+        <v>0.01830207364</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7719,10 +8353,10 @@
         <v>16</v>
       </c>
       <c r="C256">
-        <v>3.6203387360000006E-2</v>
+        <v>0.03620338736</v>
       </c>
       <c r="D256">
-        <v>3.703032752000001E-2</v>
+        <v>0.03703032752</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7733,10 +8367,10 @@
         <v>19</v>
       </c>
       <c r="C257">
-        <v>6.0456343080000009E-2</v>
+        <v>0.06045634308</v>
       </c>
       <c r="D257">
-        <v>8.4241627440000008E-2</v>
+        <v>0.08424162744</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7747,10 +8381,10 @@
         <v>21</v>
       </c>
       <c r="C258">
-        <v>1.4497923999999877E-4</v>
+        <v>0.000144979239999999</v>
       </c>
       <c r="D258">
-        <v>2.1309011999999969E-4</v>
+        <v>0.00021309012</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7761,10 +8395,10 @@
         <v>23</v>
       </c>
       <c r="C259">
-        <v>1.4373656080000002E-2</v>
+        <v>0.01437365608</v>
       </c>
       <c r="D259">
-        <v>2.0054147960000004E-2</v>
+        <v>0.02005414796</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7775,10 +8409,10 @@
         <v>7</v>
       </c>
       <c r="C260">
-        <v>2.8750040227999998E-2</v>
+        <v>0.028750040228</v>
       </c>
       <c r="D260">
-        <v>2.2788071080000003E-2</v>
+        <v>0.02278807108</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7789,10 +8423,10 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>4.4975114548000003E-2</v>
+        <v>0.044975114548</v>
       </c>
       <c r="D261">
-        <v>5.1622424336000006E-2</v>
+        <v>0.051622424336</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7803,10 +8437,10 @@
         <v>13</v>
       </c>
       <c r="C262">
-        <v>1.7946515132000001E-2</v>
+        <v>0.017946515132</v>
       </c>
       <c r="D262">
-        <v>1.7703697432000006E-2</v>
+        <v>0.017703697432</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7817,10 +8451,10 @@
         <v>16</v>
       </c>
       <c r="C263">
-        <v>3.4587109648000006E-2</v>
+        <v>0.034587109648</v>
       </c>
       <c r="D263">
-        <v>3.5819641376000008E-2</v>
+        <v>0.035819641376</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7831,10 +8465,10 @@
         <v>19</v>
       </c>
       <c r="C264">
-        <v>5.7757307244000002E-2</v>
+        <v>0.057757307244</v>
       </c>
       <c r="D264">
-        <v>8.1487393872000019E-2</v>
+        <v>0.081487393872</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7845,10 +8479,10 @@
         <v>21</v>
       </c>
       <c r="C265">
-        <v>1.385067319999988E-4</v>
+        <v>0.000138506731999999</v>
       </c>
       <c r="D265">
-        <v>2.0612325599999971E-4</v>
+        <v>0.000206123256</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7859,10 +8493,10 @@
         <v>23</v>
       </c>
       <c r="C266">
-        <v>1.3731953144000001E-2</v>
+        <v>0.013731953144</v>
       </c>
       <c r="D266">
-        <v>1.9398488648000006E-2</v>
+        <v>0.019398488648</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7873,10 +8507,10 @@
         <v>7</v>
       </c>
       <c r="C267">
-        <v>2.7406532495999999E-2</v>
+        <v>0.027406532496</v>
       </c>
       <c r="D267">
-        <v>2.2017845560000002E-2</v>
+        <v>0.02201784556</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7887,10 +8521,10 @@
         <v>10</v>
       </c>
       <c r="C268">
-        <v>4.2873398736000004E-2</v>
+        <v>0.042873398736</v>
       </c>
       <c r="D268">
-        <v>4.9877611952000009E-2</v>
+        <v>0.049877611952</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7901,10 +8535,10 @@
         <v>13</v>
       </c>
       <c r="C269">
-        <v>1.7107863024000001E-2</v>
+        <v>0.017107863024</v>
       </c>
       <c r="D269">
-        <v>1.7105321224000006E-2</v>
+        <v>0.017105321224</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7915,10 +8549,10 @@
         <v>16</v>
       </c>
       <c r="C270">
-        <v>3.2970831936000006E-2</v>
+        <v>0.032970831936</v>
       </c>
       <c r="D270">
-        <v>3.4608955232000006E-2</v>
+        <v>0.034608955232</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7929,10 +8563,10 @@
         <v>19</v>
       </c>
       <c r="C271">
-        <v>5.5058271408000001E-2</v>
+        <v>0.055058271408</v>
       </c>
       <c r="D271">
-        <v>7.8733160304000016E-2</v>
+        <v>0.078733160304</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7943,10 +8577,10 @@
         <v>21</v>
       </c>
       <c r="C272">
-        <v>1.3203422399999886E-4</v>
+        <v>0.000132034223999999</v>
       </c>
       <c r="D272">
-        <v>1.9915639199999971E-4</v>
+        <v>0.000199156392</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7957,10 +8591,10 @@
         <v>23</v>
       </c>
       <c r="C273">
-        <v>1.3090250208E-2</v>
+        <v>0.013090250208</v>
       </c>
       <c r="D273">
-        <v>1.8742829336000005E-2</v>
+        <v>0.018742829336</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7971,10 +8605,10 @@
         <v>7</v>
       </c>
       <c r="C274">
-        <v>2.6063024763999999E-2</v>
+        <v>0.026063024764</v>
       </c>
       <c r="D274">
-        <v>2.1247620039999998E-2</v>
+        <v>0.02124762004</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7985,10 +8619,10 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>4.0771682924000005E-2</v>
+        <v>0.040771682924</v>
       </c>
       <c r="D275">
-        <v>4.8132799567999998E-2</v>
+        <v>0.048132799568</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7999,10 +8633,10 @@
         <v>13</v>
       </c>
       <c r="C276">
-        <v>1.6269210916000001E-2</v>
+        <v>0.016269210916</v>
       </c>
       <c r="D276">
-        <v>1.6506945016000002E-2</v>
+        <v>0.016506945016</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8013,10 +8647,10 @@
         <v>16</v>
       </c>
       <c r="C277">
-        <v>3.1354554224000006E-2</v>
+        <v>0.031354554224</v>
       </c>
       <c r="D277">
-        <v>3.3398269088000004E-2</v>
+        <v>0.033398269088</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8027,10 +8661,10 @@
         <v>19</v>
       </c>
       <c r="C278">
-        <v>5.2359235572E-2</v>
+        <v>0.052359235572</v>
       </c>
       <c r="D278">
-        <v>7.5978926735999999E-2</v>
+        <v>0.075978926736</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8041,10 +8675,10 @@
         <v>21</v>
       </c>
       <c r="C279">
-        <v>1.2556171599999893E-4</v>
+        <v>0.000125561715999999</v>
       </c>
       <c r="D279">
-        <v>1.9218952799999971E-4</v>
+        <v>0.000192189528</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8055,10 +8689,10 @@
         <v>23</v>
       </c>
       <c r="C280">
-        <v>1.2448547272000001E-2</v>
+        <v>0.012448547272</v>
       </c>
       <c r="D280">
-        <v>1.8087170024000003E-2</v>
+        <v>0.018087170024</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8069,10 +8703,10 @@
         <v>7</v>
       </c>
       <c r="C281">
-        <v>2.4719517032E-2</v>
+        <v>0.024719517032</v>
       </c>
       <c r="D281">
-        <v>2.0477394519999997E-2</v>
+        <v>0.02047739452</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8083,10 +8717,10 @@
         <v>10</v>
       </c>
       <c r="C282">
-        <v>3.8669967112000006E-2</v>
+        <v>0.038669967112</v>
       </c>
       <c r="D282">
-        <v>4.6387987184000001E-2</v>
+        <v>0.046387987184</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8097,10 +8731,10 @@
         <v>13</v>
       </c>
       <c r="C283">
-        <v>1.5430558808000002E-2</v>
+        <v>0.015430558808</v>
       </c>
       <c r="D283">
-        <v>1.5908568808000002E-2</v>
+        <v>0.015908568808</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8111,10 +8745,10 @@
         <v>16</v>
       </c>
       <c r="C284">
-        <v>2.9738276512000006E-2</v>
+        <v>0.029738276512</v>
       </c>
       <c r="D284">
-        <v>3.2187582944000002E-2</v>
+        <v>0.032187582944</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8125,10 +8759,10 @@
         <v>19</v>
       </c>
       <c r="C285">
-        <v>4.9660199736000006E-2</v>
+        <v>0.049660199736</v>
       </c>
       <c r="D285">
-        <v>7.322469316800001E-2</v>
+        <v>0.073224693168</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8139,10 +8773,10 @@
         <v>21</v>
       </c>
       <c r="C286">
-        <v>1.1908920799999898E-4</v>
+        <v>0.000119089207999999</v>
       </c>
       <c r="D286">
-        <v>1.852226639999997E-4</v>
+        <v>0.000185222664</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8153,10 +8787,10 @@
         <v>23</v>
       </c>
       <c r="C287">
-        <v>1.1806844336000002E-2</v>
+        <v>0.011806844336</v>
       </c>
       <c r="D287">
-        <v>1.7431510712000001E-2</v>
+        <v>0.017431510712</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8167,10 +8801,10 @@
         <v>7</v>
       </c>
       <c r="C288">
-        <v>2.3376009299999997E-2</v>
+        <v>0.0233760093</v>
       </c>
       <c r="D288">
-        <v>1.9707168999999997E-2</v>
+        <v>0.019707169</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8181,10 +8815,10 @@
         <v>10</v>
       </c>
       <c r="C289">
-        <v>3.65682513E-2</v>
+        <v>0.0365682513</v>
       </c>
       <c r="D289">
-        <v>4.4643174799999998E-2</v>
+        <v>0.0446431748</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8195,10 +8829,10 @@
         <v>13</v>
       </c>
       <c r="C290">
-        <v>1.4591906700000001E-2</v>
+        <v>0.0145919067</v>
       </c>
       <c r="D290">
-        <v>1.5310192600000001E-2</v>
+        <v>0.0153101926</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8209,10 +8843,10 @@
         <v>16</v>
       </c>
       <c r="C291">
-        <v>2.8121998800000002E-2</v>
+        <v>0.0281219988</v>
       </c>
       <c r="D291">
-        <v>3.0976896800000001E-2</v>
+        <v>0.0309768968</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8223,10 +8857,10 @@
         <v>19</v>
       </c>
       <c r="C292">
-        <v>4.6961163899999998E-2</v>
+        <v>0.0469611639</v>
       </c>
       <c r="D292">
-        <v>7.0470459599999993E-2</v>
+        <v>0.0704704596</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8237,10 +8871,10 @@
         <v>21</v>
       </c>
       <c r="C293">
-        <v>1.1261669999999901E-4</v>
+        <v>0.000112616699999999</v>
       </c>
       <c r="D293">
-        <v>1.782557999999997E-4</v>
+        <v>0.0001782558</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8251,10 +8885,10 @@
         <v>23</v>
       </c>
       <c r="C294">
-        <v>1.11651414E-2</v>
+        <v>0.0111651414</v>
       </c>
       <c r="D294">
-        <v>1.67758514E-2</v>
+        <v>0.0167758514</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8265,10 +8899,10 @@
         <v>7</v>
       </c>
       <c r="C295">
-        <v>2.2100571711999997E-2</v>
+        <v>0.022100571712</v>
       </c>
       <c r="D295">
-        <v>1.88891198E-2</v>
+        <v>0.0188891198</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8279,10 +8913,10 @@
         <v>10</v>
       </c>
       <c r="C296">
-        <v>3.4573020991999999E-2</v>
+        <v>0.034573020992</v>
       </c>
       <c r="D296">
-        <v>4.2790026160000001E-2</v>
+        <v>0.04279002616</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8293,10 +8927,10 @@
         <v>13</v>
       </c>
       <c r="C297">
-        <v>1.3795745728E-2</v>
+        <v>0.013795745728</v>
       </c>
       <c r="D297">
-        <v>1.4674662920000003E-2</v>
+        <v>0.01467466292</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8307,10 +8941,10 @@
         <v>16</v>
       </c>
       <c r="C298">
-        <v>2.6587611392000002E-2</v>
+        <v>0.026587611392</v>
       </c>
       <c r="D298">
-        <v>2.9691038560000004E-2</v>
+        <v>0.02969103856</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8321,10 +8955,10 @@
         <v>19</v>
       </c>
       <c r="C299">
-        <v>4.4398877375999998E-2</v>
+        <v>0.044398877376</v>
       </c>
       <c r="D299">
-        <v>6.7545214320000005E-2</v>
+        <v>0.06754521432</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8335,10 +8969,10 @@
         <v>21</v>
       </c>
       <c r="C300">
-        <v>1.0647212799999907E-4</v>
+        <v>0.000106472127999999</v>
       </c>
       <c r="D300">
-        <v>1.7085635999999975E-4</v>
+        <v>0.00017085636</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8349,10 +8983,10 @@
         <v>23</v>
       </c>
       <c r="C301">
-        <v>1.0555950976000001E-2</v>
+        <v>0.010555950976</v>
       </c>
       <c r="D301">
-        <v>1.6079481880000003E-2</v>
+        <v>0.01607948188</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8363,10 +8997,10 @@
         <v>7</v>
       </c>
       <c r="C302">
-        <v>2.0825134124E-2</v>
+        <v>0.020825134124</v>
       </c>
       <c r="D302">
-        <v>1.8071070599999999E-2</v>
+        <v>0.0180710706</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8377,10 +9011,10 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>3.2577790684000005E-2</v>
+        <v>0.032577790684</v>
       </c>
       <c r="D303">
-        <v>4.0936877519999998E-2</v>
+        <v>0.04093687752</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8391,10 +9025,10 @@
         <v>13</v>
       </c>
       <c r="C304">
-        <v>1.2999584756000002E-2</v>
+        <v>0.012999584756</v>
       </c>
       <c r="D304">
-        <v>1.4039133240000001E-2</v>
+        <v>0.01403913324</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8405,10 +9039,10 @@
         <v>16</v>
       </c>
       <c r="C305">
-        <v>2.5053223984000006E-2</v>
+        <v>0.025053223984</v>
       </c>
       <c r="D305">
-        <v>2.8405180320000001E-2</v>
+        <v>0.02840518032</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8419,10 +9053,10 @@
         <v>19</v>
       </c>
       <c r="C306">
-        <v>4.1836590852000005E-2</v>
+        <v>0.041836590852</v>
       </c>
       <c r="D306">
-        <v>6.4619969040000003E-2</v>
+        <v>0.06461996904</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8433,10 +9067,10 @@
         <v>21</v>
       </c>
       <c r="C307">
-        <v>1.0032755599999914E-4</v>
+        <v>0.000100327555999999</v>
       </c>
       <c r="D307">
-        <v>1.6345691999999974E-4</v>
+        <v>0.00016345692</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8447,10 +9081,10 @@
         <v>23</v>
       </c>
       <c r="C308">
-        <v>9.9467605520000019E-3</v>
+        <v>0.009946760552</v>
       </c>
       <c r="D308">
-        <v>1.5383112360000001E-2</v>
+        <v>0.01538311236</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8461,10 +9095,10 @@
         <v>7</v>
       </c>
       <c r="C309">
-        <v>1.9549696535999996E-2</v>
+        <v>0.019549696536</v>
       </c>
       <c r="D309">
-        <v>1.7253021399999999E-2</v>
+        <v>0.0172530214</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8475,10 +9109,10 @@
         <v>10</v>
       </c>
       <c r="C310">
-        <v>3.0582560376E-2</v>
+        <v>0.030582560376</v>
       </c>
       <c r="D310">
-        <v>3.9083728880000002E-2</v>
+        <v>0.03908372888</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8489,10 +9123,10 @@
         <v>13</v>
       </c>
       <c r="C311">
-        <v>1.2203423784E-2</v>
+        <v>0.012203423784</v>
       </c>
       <c r="D311">
-        <v>1.3403603560000001E-2</v>
+        <v>0.01340360356</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8503,10 +9137,10 @@
         <v>16</v>
       </c>
       <c r="C312">
-        <v>2.3518836575999999E-2</v>
+        <v>0.023518836576</v>
       </c>
       <c r="D312">
-        <v>2.7119322080000001E-2</v>
+        <v>0.02711932208</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8517,10 +9151,10 @@
         <v>19</v>
       </c>
       <c r="C313">
-        <v>3.9274304327999998E-2</v>
+        <v>0.039274304328</v>
       </c>
       <c r="D313">
-        <v>6.169472376E-2</v>
+        <v>0.06169472376</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8531,10 +9165,10 @@
         <v>21</v>
       </c>
       <c r="C314">
-        <v>9.4182983999999172E-5</v>
+        <v>9.41829839999992e-5</v>
       </c>
       <c r="D314">
-        <v>1.5605747999999976E-4</v>
+        <v>0.00015605748</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8545,38 +9179,30 @@
         <v>23</v>
       </c>
       <c r="C315">
-        <v>9.3375701279999994E-3</v>
+        <v>0.009337570128</v>
       </c>
       <c r="D315">
-        <v>1.4686742840000003E-2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
+        <v>0.01468674284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8592,7 +9218,7 @@
         <v>0.51903345843088</v>
       </c>
       <c r="C2">
-        <v>0.51694078068808003</v>
+        <v>0.51694078068808</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8600,10 +9226,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.51308262180145192</v>
+        <v>0.513082621801452</v>
       </c>
       <c r="C3">
-        <v>0.51133657107264796</v>
+        <v>0.511336571072648</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8611,10 +9237,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.50713178517202395</v>
+        <v>0.507131785172024</v>
       </c>
       <c r="C4">
-        <v>0.50573236145721612</v>
+        <v>0.505732361457216</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8622,10 +9248,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.50118094854259598</v>
+        <v>0.501180948542596</v>
       </c>
       <c r="C5">
-        <v>0.50012815184178405</v>
+        <v>0.500128151841784</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8633,10 +9259,10 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.49523011191316807</v>
+        <v>0.495230111913168</v>
       </c>
       <c r="C6">
-        <v>0.4945239422263521</v>
+        <v>0.494523942226352</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8644,10 +9270,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.4892792752837401</v>
+        <v>0.48927927528374</v>
       </c>
       <c r="C7">
-        <v>0.48891973261092009</v>
+        <v>0.48891973261092</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8655,10 +9281,10 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.47861978287443202</v>
+        <v>0.478619782874432</v>
       </c>
       <c r="C8">
-        <v>0.47884034067014808</v>
+        <v>0.478840340670148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8666,10 +9292,10 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.44831110511137601</v>
+        <v>0.448311105111376</v>
       </c>
       <c r="C9">
-        <v>0.45305764535276799</v>
+        <v>0.453057645352768</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8680,7 +9306,7 @@
         <v>0.438099194145184</v>
       </c>
       <c r="C10">
-        <v>0.44331590899087209</v>
+        <v>0.443315908990872</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8688,10 +9314,10 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.39717967933470405</v>
+        <v>0.397179679334704</v>
       </c>
       <c r="C11">
-        <v>0.40105371512286397</v>
+        <v>0.401053715122864</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8699,10 +9325,10 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.38770063267360011</v>
+        <v>0.3877006326736</v>
       </c>
       <c r="C12">
-        <v>0.39204266279012007</v>
+        <v>0.39204266279012</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8710,10 +9336,10 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.38783991373150406</v>
+        <v>0.387839913731504</v>
       </c>
       <c r="C13">
-        <v>0.39224950732017605</v>
+        <v>0.392249507320176</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8721,10 +9347,10 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>9.5997268319999982E-2</v>
+        <v>0.09599726832</v>
       </c>
       <c r="C14">
-        <v>0.13829681356000004</v>
+        <v>0.13829681356</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8732,10 +9358,10 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>9.6031730480000008E-2</v>
+        <v>0.09603173048</v>
       </c>
       <c r="C15">
-        <v>0.13836970304000001</v>
+        <v>0.13836970304</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8743,10 +9369,10 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>9.6066192640000006E-2</v>
+        <v>0.09606619264</v>
       </c>
       <c r="C16">
-        <v>0.13844259252000002</v>
+        <v>0.13844259252</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8754,7 +9380,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>9.610065479999999E-2</v>
+        <v>0.0961006548</v>
       </c>
       <c r="C17">
         <v>0.138515482</v>
@@ -8765,29 +9391,30 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>9.7278739200000006E-2</v>
+        <v>0.0972787392</v>
       </c>
       <c r="C18">
-        <v>0.14011717144000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
+        <v>0.14011717144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
         <v>108</v>
       </c>
@@ -8899,5 +9526,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>